--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDD66A-4D40-4B11-B63A-6A780E7FD38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90F9AF-D931-497A-9D2C-285F42EB765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Cơ Nguyệt Đồng Lương</t>
   </si>
@@ -43,6 +43,48 @@
   </si>
   <si>
     <t>Đại vận chủ về công việc gặp rất nhiều vấn đề xấu.</t>
+  </si>
+  <si>
+    <t>Quan Lộc có Thiên Lương thủ tọa tại Tý</t>
+  </si>
+  <si>
+    <t>Quan Lộc có Thiên Lương thủ tọa tại Hợi</t>
+  </si>
+  <si>
+    <t>Công việc nào cũng rất thích nhưng nhanh chán.</t>
+  </si>
+  <si>
+    <t>Hay thay đổi công việc.</t>
+  </si>
+  <si>
+    <t>Công việc có tính lưu động di chuyển.</t>
+  </si>
+  <si>
+    <t>Nên làm công việc có tính lưu động như du lịch, báo chí, hoặc lưu diễn...</t>
+  </si>
+  <si>
+    <t>Quan Lộc có Thiên Đồng Thiên Lương đồng cung</t>
+  </si>
+  <si>
+    <t>Công việc liên quan đến y dược, chính trị, sư phạm.</t>
+  </si>
+  <si>
+    <t>Đều có danh tiếng trong ngành y dược, sư phạm.</t>
+  </si>
+  <si>
+    <t>Quan Lộc có Tử Vi Thiên Tướng đồng cung"</t>
+  </si>
+  <si>
+    <t>Công việc liên quan đến quân đội, cảnh sát. Có tiền đồ phát triển liên quan đến quân sự, quốc phòng.</t>
+  </si>
+  <si>
+    <t>Có tài lãnh binh, điều hành, điều khiển, lãnh đạo, chỉ đạo.</t>
+  </si>
+  <si>
+    <t>Quan Lộc có Tham Lang Tử Vi đồng cung</t>
+  </si>
+  <si>
+    <t>Công việc bình thường, nếu công việc có nhiều thành công rực rỡ dễ dính vào tai họa ẩn nấp</t>
   </si>
 </sst>
 </file>
@@ -360,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,17 +421,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C2E65-8A55-4BC6-A9DF-CB8047BEC718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E875EC-6255-45A1-95D5-8168A4901659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7632" uniqueCount="3742">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11221,6 +11221,36 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thiên Phủ tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thiên Tướng tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Phá Quân tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Phủ tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Tướng tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Lang Văn Xương đồng cung tại Tỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang Văn Xương đồng cung tại Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Cự Môn, Thiên Hình đồng cung tại Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -11759,10 +11789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1646" workbookViewId="0">
-      <selection activeCell="S1654" sqref="S1654"/>
+    <sheetView tabSelected="1" topLeftCell="A3791" workbookViewId="0">
+      <selection activeCell="R3815" sqref="R3815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42256,6 +42286,56 @@
       </c>
       <c r="B3812" t="s">
         <v>3610</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3741</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E875EC-6255-45A1-95D5-8168A4901659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1393C1-A6EB-412E-BFCF-08B5EA27EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7632" uniqueCount="3742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="3743">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11251,6 +11251,9 @@
   </si>
   <si>
     <t>Thiên Đồng, Cự Môn, Thiên Hình đồng cung tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
   </si>
 </sst>
 </file>
@@ -11789,10 +11792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3823"/>
+  <dimension ref="A1:B3824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3791" workbookViewId="0">
-      <selection activeCell="R3815" sqref="R3815"/>
+    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="Q659" sqref="Q659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42336,6 +42339,14 @@
     <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3823" t="s">
         <v>3741</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3742</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1393C1-A6EB-412E-BFCF-08B5EA27EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BAC08-43B7-4E10-A617-36D51CCA92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="3743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="3759">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11223,37 +11223,85 @@
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung với Tham Lang tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Thiên Phủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Thiên Tướng tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Thất Sát tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Phá Quân tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung với Thiên Phủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung với Thiên Tướng tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tham Lang Văn Xương đồng cung tại Tỵ</t>
-  </si>
-  <si>
-    <t>Tham Lang Văn Xương đồng cung tại Hợi</t>
-  </si>
-  <si>
-    <t>Thiên Đồng, Cự Môn, Thiên Hình đồng cung tại Quan Lộc</t>
-  </si>
-  <si>
     <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11295,7 +11343,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11792,10 +11850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3824"/>
+  <dimension ref="A1:B3840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="Q659" sqref="Q659"/>
+    <sheetView tabSelected="1" topLeftCell="A3821" workbookViewId="0">
+      <selection activeCell="F3833" sqref="F3833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42293,111 +42351,272 @@
     </row>
     <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3814" t="s">
-        <v>3732</v>
+        <v>3733</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3733</v>
       </c>
     </row>
     <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3815" t="s">
-        <v>3733</v>
+        <v>3734</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3734</v>
       </c>
     </row>
     <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3816" t="s">
-        <v>3734</v>
+        <v>3735</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3735</v>
       </c>
     </row>
     <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3817" t="s">
-        <v>3735</v>
+        <v>3736</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3736</v>
       </c>
     </row>
     <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3818" t="s">
-        <v>3736</v>
+        <v>3737</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3737</v>
       </c>
     </row>
     <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3819" t="s">
-        <v>3737</v>
+        <v>3738</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3738</v>
       </c>
     </row>
     <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3820" t="s">
-        <v>3738</v>
+        <v>3739</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3739</v>
       </c>
     </row>
     <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3821" t="s">
-        <v>3739</v>
+        <v>3740</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3740</v>
       </c>
     </row>
     <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3822" t="s">
-        <v>3740</v>
+        <v>3741</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3741</v>
       </c>
     </row>
     <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3823" t="s">
-        <v>3741</v>
+        <v>3742</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3742</v>
       </c>
     </row>
     <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3824" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="B3824" t="s">
-        <v>3742</v>
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3758</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3841:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3841:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3814:A3840">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BAC08-43B7-4E10-A617-36D51CCA92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2586CC-BF93-40E8-B3B5-C3F64CB640A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="3759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7746" uniqueCount="3794">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11302,6 +11302,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11343,7 +11448,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11850,10 +11965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3840"/>
+  <dimension ref="A1:B3875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3821" workbookViewId="0">
-      <selection activeCell="F3833" sqref="F3833"/>
+    <sheetView tabSelected="1" topLeftCell="A3833" workbookViewId="0">
+      <selection activeCell="D3844" sqref="D3844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42565,57 +42680,337 @@
         <v>3758</v>
       </c>
     </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3793</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3841:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3841:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3876:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3814:A3840">
+  <conditionalFormatting sqref="A3814:A3875">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802E430-6AFA-4F25-AAA6-D6E64C5DB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0957AE3-53E7-4491-A499-8060F585272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8412" uniqueCount="4206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8570" uniqueCount="4285">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12643,6 +12643,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -12684,127 +12921,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13321,10 +13438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4207"/>
+  <dimension ref="A1:B4287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4153" workbookViewId="0">
-      <selection activeCell="B4153" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4192" workbookViewId="0">
+      <selection activeCell="B4209" sqref="B4209:B4287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46977,35 +47094,667 @@
         <v>4205</v>
       </c>
     </row>
+    <row r="4209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4209" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4210" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4211" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4212" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4213" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4214" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4215" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4216" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4217" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4218" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4219" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4220" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4221" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4222" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4223" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4224" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4237" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="35" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="33" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="31" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="29" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="26" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3814:A3875">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="11" priority="9"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0957AE3-53E7-4491-A499-8060F585272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E5B4E0-701D-46BC-9E2C-2E7A904D79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8570" uniqueCount="4285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8780" uniqueCount="4390">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12880,6 +12880,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -13438,10 +13753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4287"/>
+  <dimension ref="A1:B4394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4192" workbookViewId="0">
-      <selection activeCell="B4209" sqref="B4209:B4287"/>
+    <sheetView tabSelected="1" topLeftCell="A4282" workbookViewId="0">
+      <selection activeCell="F4302" sqref="F4302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47726,63 +48041,903 @@
         <v>4284</v>
       </c>
     </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4389</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A1:A4174 A6720:A1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="21" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="19" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="17" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="14" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3814:A3875">
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
+  <conditionalFormatting sqref="B1:B4174 B6720:B1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3813 B3876:B4174 B6720:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3814:B3875">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4174 B6720:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E5B4E0-701D-46BC-9E2C-2E7A904D79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE749FF1-16E7-4754-8A81-293215EFD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8780" uniqueCount="4390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="4391">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13195,6 +13195,9 @@
   </si>
   <si>
     <t>Thất Sát đồng cung Phá Quân tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Ân Quang Thiên Quý Thai Cáo hội chiếu tại Mệnh</t>
   </si>
 </sst>
 </file>
@@ -13753,10 +13756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4394"/>
+  <dimension ref="A1:B4395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4282" workbookViewId="0">
-      <selection activeCell="F4302" sqref="F4302"/>
+    <sheetView tabSelected="1" topLeftCell="A4371" workbookViewId="0">
+      <selection activeCell="B4395" sqref="B4395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48879,6 +48882,14 @@
       </c>
       <c r="B4394" t="s">
         <v>4389</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4390</v>
       </c>
     </row>
   </sheetData>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE749FF1-16E7-4754-8A81-293215EFD43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20BACE-1848-49BA-8FAD-21CF1907AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="4391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8784" uniqueCount="4393">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13198,6 +13198,12 @@
   </si>
   <si>
     <t>Ân Quang Thiên Quý Thai Cáo hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Chức tước công việc to lớn</t>
+  </si>
+  <si>
+    <t>Quang Quý Tả Hữu Hồng Loan Khôi Việt Hoa Cái Long Trì hội chiếu tại Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -13213,12 +13219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13233,13 +13245,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13756,10 +13789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4395"/>
+  <dimension ref="A1:B4396"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4371" workbookViewId="0">
-      <selection activeCell="B4395" sqref="B4395"/>
+      <selection activeCell="L4379" sqref="L4379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48892,63 +48925,77 @@
         <v>4390</v>
       </c>
     </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4391</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A4174 A6720:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3814:A3875">
-    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4174 B6720:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3813 B3876:B4174 B6720:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3814:B3875">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4396">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4396">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D99A5-C9A3-40DE-8427-52CBC3CD7F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575152BE-BE5C-4B4D-BEF8-D81D647F041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8566" uniqueCount="4351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="4730">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13104,6 +13104,1146 @@
   </si>
   <si>
     <t>Công danh trắc trở, chức vị nhỏ thấp. Nếu giàu sang cũng chẳng được lâu bền. Nên kinh doanh, buôn bán hay chuyên về kỹ nghệ.</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công danh trắc trở, chức vị nhỏ thấp, thăng giáng thất thường. Đôi khi chỉ có hư danh mà không có thực quyền. Suốt đời không được xứng ý toại lòng, vì không gặp cơ hội để thi thố tài năng và thường bị tiểu nhân ghen ghét mưu hại </t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Có chức vị lớn lao, nhưng vẫn chưa toại nguyện. Trên đường công danh hay gặp trở ngại, thường bị kẻ dưới lừa gạt, những người tùy thuộc giúp việc đều bất lực.</t>
+  </si>
+  <si>
+    <t>Không thế hiển đạt được. Thường mắc nhiều tai họa và bị kẻ tiểu nhân mưu hại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không thể hiển đạt được. Nên lánh mình ra khỏi đường công danh, nên an thường thủ phận để tránh mọi tai ương họa hại. </t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Tử Vi sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Cơ sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Dương sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công danh hoạnh đạt, có võ chức lớn lao, có uy quyền hiển hách. Được nhiều người kính trọng và nể sợ, gặp được những người giúp việc đắc lực. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Có danh chức và uy quyền vượt mọi trở ngại, thắng mọi âm lọc lừa của kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không thể hiển đạt được, trên đường công danh đầy rẫy những trở ngại tai ương. </t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Đồng sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Công danh hoạnh đạt. Có võ chức lớn lao, hiển hách trong thời loạn. Nhưng thăng giáng thất thường. Vì liều lĩnh mạo hiểm mà thành công trong những việc thật khó khăn, được hưởng phú qúy. Tuy vậy chẳng được lâu bền, đã hoạnh phát tất hoạnh tán.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh chức nhưng không toại nguyện, thiếu người giúp việc đắc lực. </t>
+  </si>
+  <si>
+    <t>có danh chức nhưng nhỏ, thăng giáng thất thường. Tuy vậy, vẫn gặp được người dìu dắt, nâng đỡ.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Nên an thường thủ phận.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Liêm Trinh sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Phủ sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thái Âm sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Tham Lang sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Tham Lang sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Cự Môn sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Cự Môn sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Có danh chức, nhưng nhỏ thấp. Tuy vậy vẫn gặp được nhiều người dìu dắt, nâng đỡ.</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Tướng sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thiên Lương sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Thất Sát sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Thất Sát sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Kình Dương sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Đà La sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Đà La sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Hoả Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Linh Tinh sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Địa Không sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Địa Không sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao sáng toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao sáng</t>
+  </si>
+  <si>
+    <t>Phá Quân sao tối toạ thủ cung Quan Lộc gặp Địa Kiếp sao tối</t>
+  </si>
+  <si>
+    <t>Công danh hiển đạt, có văn tài lỗi lạc.</t>
+  </si>
+  <si>
+    <t>Có danh chức lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh chức lớn nắm giữ đầu mối những công việc lớn và được chỉ huy một số người dưới quyền 
+thật đông đảo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh chức lớn nắm giữ đầu mối những công việc lớn và được chỉ huy một số người dưới quyền 
+thật đông đảo. Tài lộc thêm đồi dào, uy quyền thêm hiển hách, danh chức thêm lớn lao. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh chức và nhiều tiền bạc, có tài tổ chức. </t>
+  </si>
+  <si>
+    <t>Công việc cần phải suy xét, luận lý.</t>
+  </si>
+  <si>
+    <t>Thiên Khốc sao sáng toạ thủ cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Hư sao sáng toạ thủ cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Khốc sao tối toạ thủ cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Hư sao tối toạ thủ cung Quan Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có uy quyền, ăn nói hoạt bát và hùng hồn. Ra ngoài được nhiều người kính phục. Lúc thiếu thời gặp nhiều trở ngại trên đường công danh, đến khi đứng tuổi mới được xứng ý toại lòng. Nên chuyên về pháp lý hay chính trị. </t>
+  </si>
+  <si>
+    <t>Hay gặp sự phiền lòng, trên đường công danh hay gặp nhiều trở ngại</t>
+  </si>
+  <si>
+    <t>Thiên Mã toạ thủ cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Công danh hiển đạt, nên làm công việc có tính cáchlưu động. Có tài tổ chức và thao lược.</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Văn Khúc tại cung Quan Lộc ở Hợi</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Văn Khúc tại cung Quan Lộc ở Tý</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Văn Xương tại cung Quan Lộc ở Tý</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Văn Xương tại cung Quan Lộc ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh chức, được nhiều người biết tiếng, tài lộc dồi dào. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải nhờ người trên dìu dắt mới khá giả được. </t>
+  </si>
+  <si>
+    <t>Thiên Đồng, Thái Âm, Kình Dương tọa thủ cung Quan Lộc ở Ngọ</t>
+  </si>
+  <si>
+    <t>Làm võ quan trọng trấn ở biên thùy. Lập được nhiều chiến công, hiển đạt trong thời loạn. Thường là bậc anh hùng dân tộc, có danh tiếng lừng lẫy.</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Thìn có Thiên Lương, Thiên Cơ, Thái Âm, Thiên Đồng, Văn Xương, Văn Khúc hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Thân có Thiên Lương, Thiên Cơ, Thái Âm, Thiên Đồng, Văn Xương, Văn Khúc hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Dần có Thiên Lương, Thiên Cơ, Thiên Đồng, Thái Âm, Văn Xương, Văn Khúc hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Tuất có Thiên Lương, Thiên Cơ, Thiên Đồng, Thái Âm, Văn Xương, Văn Khúc hội họp</t>
+  </si>
+  <si>
+    <t>Làm thầy giáo, lương y rất nổi tiếng</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Thìn có Thiên Lương, Thiên Cơ, Thái Âm, Thiên Đồng, Văn Xương, Văn Khúc, Tả Phụ, Hữu Bật hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Thân có Thiên Lương, Thiên Cơ, Thái Âm, Thiên Đồng, Văn Xương, Văn Khúc, Tả Phụ, Hữu Bật hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Dần có Thiên Lương, Thiên Cơ, Thiên Đồng, Thái Âm, Văn Xương, Văn Khúc, Tả Phụ, Hữu Bật hội họp</t>
+  </si>
+  <si>
+    <t>Quan Lộc an tại Tuất có Thiên Lương, Thiên Cơ, Thiên Đồng, Thái Âm, Văn Xương, Văn Khúc, Tả Phụ, Hữu Bật hội họp</t>
   </si>
 </sst>
 </file>
@@ -13139,20 +14279,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13699,10 +14895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4284"/>
+  <dimension ref="A2:B4638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2495" workbookViewId="0">
-      <selection activeCell="D2497" sqref="D2497"/>
+    <sheetView tabSelected="1" topLeftCell="A4627" workbookViewId="0">
+      <selection activeCell="O4628" sqref="O4628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25899,23 +27095,23 @@
         <v>1559</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>1561</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
@@ -25923,15 +27119,15 @@
         <v>1562</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>1563</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46371,7 +47567,7 @@
         <v>4082</v>
       </c>
       <c r="B4084" s="1" t="s">
-        <v>4082</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="4085" spans="1:2" x14ac:dyDescent="0.25">
@@ -46427,7 +47623,7 @@
         <v>4089</v>
       </c>
       <c r="B4091" s="1" t="s">
-        <v>4089</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="4092" spans="1:2" x14ac:dyDescent="0.25">
@@ -46470,12 +47666,12 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="4097" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4097" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4097" s="1" t="s">
         <v>4095</v>
       </c>
       <c r="B4097" s="1" t="s">
-        <v>4095</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="4098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -46739,7 +47935,7 @@
         <v>4128</v>
       </c>
       <c r="B4130" s="1" t="s">
-        <v>4128</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="4131" spans="1:2" x14ac:dyDescent="0.25">
@@ -46755,7 +47951,7 @@
         <v>4130</v>
       </c>
       <c r="B4132" s="1" t="s">
-        <v>4130</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="4133" spans="1:2" x14ac:dyDescent="0.25">
@@ -46854,12 +48050,12 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="4145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4145" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4145" s="1" t="s">
         <v>4143</v>
       </c>
       <c r="B4145" s="1" t="s">
-        <v>4143</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="4146" spans="1:2" x14ac:dyDescent="0.25">
@@ -47806,11 +49002,11 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="4264" spans="1:2" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4264" s="2" t="s">
+    <row r="4264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4264" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="B4264" s="2" t="s">
+      <c r="B4264" s="1" t="s">
         <v>4262</v>
       </c>
     </row>
@@ -47974,73 +49170,2901 @@
         <v>4324</v>
       </c>
     </row>
+    <row r="4285" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4285" s="1" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4285" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4286" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4286" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4287" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4287" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4288" s="1" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4288" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4289" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4289" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4290" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4290" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4291" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4291" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4292" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4292" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4293" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4293" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4294" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4294" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4295" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4295" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4296" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4296" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4297" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4297" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4298" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4298" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4299" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4299" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4300" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4300" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4301" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4301" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4302" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4302" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4303" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B4303" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4304" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4304" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4305" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4305" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4306" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4306" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4307" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4307" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4308" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4308" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4309" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4309" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4310" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4310" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4311" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4311" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4312" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4312" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4313" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4313" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4314" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4314" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4315" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4315" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4316" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4316" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4317" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4317" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4318" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4318" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4319" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4319" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4320" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4320" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4321" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4321" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4322" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4322" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4323" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B4323" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4324" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4324" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4325" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4325" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4326" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4326" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4327" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B4327" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4328" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4328" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4329" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B4329" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4330" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4330" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4331" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B4331" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4332" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B4332" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4333" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B4333" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4334" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B4334" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4335" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4335" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4336" s="1" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B4336" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4337" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B4337" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4338" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B4338" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4339" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B4339" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4340" s="1" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B4340" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4341" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B4341" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4342" s="1" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B4342" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4343" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B4343" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4344" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B4344" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4345" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B4345" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4346" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B4346" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4347" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4347" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4348" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B4348" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4349" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B4349" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4350" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B4350" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4351" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B4351" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4352" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B4352" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4353" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B4353" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4354" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B4354" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4355" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B4355" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4356" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B4356" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4357" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B4357" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4358" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B4358" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4359" s="1" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4360" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B4360" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4361" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B4361" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4362" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4362" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4363" s="1" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4364" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B4364" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4365" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B4365" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4366" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B4366" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4367" s="1" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4368" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B4368" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4369" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B4369" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4370" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B4370" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4371" s="1" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4372" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B4372" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4373" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B4373" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4374" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4374" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4375" s="1" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4376" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B4376" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4377" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B4377" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4378" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4378" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4379" s="1" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4380" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B4380" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4381" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B4381" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4382" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B4382" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4383" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4383" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4384" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B4384" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4385" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B4385" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4386" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B4386" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4387" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B4387" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4388" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B4388" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4389" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B4389" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4390" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B4390" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4391" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B4391" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4392" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B4392" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4393" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4393" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4394" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B4394" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4395" s="1" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4395" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4396" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B4396" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4397" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B4397" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4398" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B4398" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4399" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B4399" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4400" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B4400" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4401" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B4401" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4402" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B4402" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4403" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B4403" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4404" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B4404" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4405" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B4405" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4406" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B4406" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4407" s="1" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4407" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4408" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B4408" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4409" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B4409" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4410" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B4410" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4411" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B4411" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4412" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4412" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4413" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B4413" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4414" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B4414" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4415" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B4415" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4416" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B4416" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4417" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B4417" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4418" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B4418" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4419" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4419" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4420" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B4420" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4421" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B4421" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4422" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B4422" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4423" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B4423" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4424" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B4424" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4425" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B4425" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4426" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B4426" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4427" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B4427" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4428" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B4428" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4429" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B4429" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4430" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B4430" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4431" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4431" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4432" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B4432" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4433" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B4433" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4434" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4434" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4435" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B4435" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4436" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B4436" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4437" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B4437" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4438" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B4438" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4439" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B4439" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4440" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B4440" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4441" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B4441" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4442" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B4442" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4443" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B4443" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4444" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B4444" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4445" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B4445" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4446" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4446" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4447" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B4447" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4448" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B4448" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4449" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B4449" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4450" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4450" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4451" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B4451" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4452" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B4452" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4453" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B4453" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4454" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B4454" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4455" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4455" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4456" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B4456" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4457" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B4457" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4458" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B4458" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4459" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B4459" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4460" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B4460" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4461" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B4461" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4462" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4462" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4463" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B4463" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4464" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B4464" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4465" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B4465" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4466" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B4466" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4467" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4467" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4468" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B4468" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4469" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B4469" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4470" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B4470" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4471" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B4471" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4472" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B4472" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4473" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B4473" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4474" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B4474" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4475" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B4475" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4476" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B4476" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4477" s="1" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B4477" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4478" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B4478" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4479" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B4479" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4480" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4480" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4481" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B4481" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4482" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4482" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4483" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B4483" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4484" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B4484" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4485" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B4485" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4486" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B4486" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4487" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B4487" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4488" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B4488" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4489" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B4489" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4490" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B4490" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4491" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B4491" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4492" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B4492" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4493" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B4493" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4494" s="1" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4494" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4495" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B4495" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4496" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B4496" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4497" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B4497" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4498" s="1" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4498" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4499" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B4499" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4500" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B4500" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4501" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B4501" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4502" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B4502" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4503" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B4503" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4504" s="1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B4504" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4505" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B4505" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4506" s="1" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4506" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4507" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B4507" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4508" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B4508" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4509" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B4509" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4510" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B4510" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4511" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B4511" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4512" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B4512" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4513" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B4513" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4514" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B4514" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4515" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B4515" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4516" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B4516" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4517" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B4517" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4518" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4518" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4519" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B4519" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4520" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B4520" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4521" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B4521" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4522" s="1" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4522" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4523" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B4523" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4524" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B4524" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4525" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B4525" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4526" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B4526" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4527" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4527" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4528" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B4528" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4529" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B4529" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4530" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B4530" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4531" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B4531" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4532" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B4532" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4533" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B4533" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4534" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B4534" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4535" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B4535" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4536" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4536" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4537" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B4537" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4538" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4538" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4539" s="1" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4539" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4540" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B4540" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4541" s="1" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B4541" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4542" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B4542" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4543" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B4543" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4544" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B4544" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4545" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B4545" s="1" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4546" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B4546" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4547" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B4547" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4548" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B4548" s="1" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4549" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B4549" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4550" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B4550" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4551" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B4551" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4552" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B4552" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4553" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B4553" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4554" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4554" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4555" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B4555" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4556" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B4556" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4557" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B4557" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4558" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B4558" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4559" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B4559" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4560" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B4560" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4561" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B4561" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4562" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B4562" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4563" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B4563" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4564" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B4564" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4565" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B4565" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4566" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4566" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4567" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B4567" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4568" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B4568" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4569" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B4569" s="1" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4570" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4570" s="1" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4571" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B4571" s="1" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4572" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B4572" s="1" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4573" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="B4573" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4574" s="1" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B4574" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4575" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B4575" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4576" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B4576" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4577" s="1" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B4577" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4578" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4578" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4579" s="1" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B4579" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4580" s="1" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B4580" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4581" s="1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B4581" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4582" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B4582" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4583" s="1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B4583" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4584" s="1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B4584" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4585" s="1" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B4585" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4586" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B4586" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4587" s="1" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B4587" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4588" s="1" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B4588" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4589" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B4589" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4590" s="1" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4590" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4591" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B4591" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4592" s="1" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B4592" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4593" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B4593" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4594" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4594" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4595" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B4595" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4596" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B4596" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4597" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B4597" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4598" s="1" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B4598" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4599" s="1" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4599" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4600" s="1" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B4600" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4601" s="1" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B4601" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4602" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B4602" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4603" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B4603" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4604" s="1" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B4604" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4605" s="1" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B4605" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4606" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B4606" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4607" s="1" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B4607" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4608" s="1" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B4608" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4609" s="1" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B4609" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4610" s="1" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B4610" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4611" s="1" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4611" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4612" s="1" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B4612" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4613" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B4613" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4614" s="1" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B4614" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4615" s="1" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B4615" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4616" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B4616" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4617" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B4617" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4618" s="1" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B4618" s="1" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4619" s="1" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B4619" s="1" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4620" s="1" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B4620" s="1" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4621" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B4621" s="1" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4622" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B4622" s="1" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4623" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B4623" s="1" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4624" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B4624" s="1" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4625" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B4625" s="1" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4626" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B4626" s="1" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4627" s="1" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B4627" s="1" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4628" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B4628" s="1" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4629" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B4629" s="1" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4630" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4630" s="1" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4631" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B4631" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4632" s="1" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B4632" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4633" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B4633" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4634" s="1" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B4634" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4635" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B4635" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4636" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B4636" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4637" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B4637" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4638" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B4638" s="1" t="s">
+        <v>4725</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B4284" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A6586:A1048576 A2:A4045">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="23" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="21" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="19" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6586:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A3313:A3684 A3747:A4045">
-    <cfRule type="duplicateValues" dxfId="18" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1681:A3210">
-    <cfRule type="duplicateValues" dxfId="16" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3685:A3746">
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6586:B1048576 B2:B4045">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  <conditionalFormatting sqref="A4264">
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6058:A1048576 A2:A4045">
+    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6058:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A3313:A3684 A3747:A4045">
+    <cfRule type="duplicateValues" dxfId="21" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6586:B1048576 B1676:B1680 B210:B1579 B2:B24 B26:B85 B144 B3313:B3684 B3747:B4045">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1681:B3210">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3685:B3746">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4264">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4264">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6058:B1048576 B2:B4045">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6058:B1048576 B1676:B1680 B2:B24 B26:B85 B144 B3313:B3684 B3747:B4045 B210:B1579">
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4097">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4097">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4145">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4145">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575152BE-BE5C-4B4D-BEF8-D81D647F041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9CFFD-71A1-49C7-A435-E0C4F40A043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="4730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9285" uniqueCount="4752">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -14244,6 +14244,73 @@
   </si>
   <si>
     <t>Quan Lộc an tại Tuất có Thiên Lương, Thiên Cơ, Thiên Đồng, Thái Âm, Văn Xương, Văn Khúc, Tả Phụ, Hữu Bật hội họp</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Qúy Quan Phúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Qúy Quan Phúc hội chiếu tại Quan Lộc </t>
+  </si>
+  <si>
+    <t>Vinh hiển trong nghề làm thuốc, được nhiều người kính trọng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có chức vụ lớn lao, uy quyền hiển hách, nhiều người vị nể. </t>
+  </si>
+  <si>
+    <t>Danh chức khá lớn, nên làm công việc có tính cách lưu động. Tài lộc ngày càng tăng tiến, có tài buôn bán kinh doanh.</t>
+  </si>
+  <si>
+    <t>Trên đường công danh đầy rẫy những trở ngại. Thường bị tiểu nhân ghen ghét gièm pha và làm hại.</t>
+  </si>
+  <si>
+    <t>Kình Dương Lực Sỹ đồng cung Quan Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công danh trắc trở, chức vị nhỏ thấp. Có công trạng không được người  trên biết đến. Mọi công việc lớn nhỏ đều chẳng được lâu bền, suốt đời bất đắc 
+chí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có tài hùng biện, biết suy xét luận lý, văn chương lỗi lạc. Nên chuyên về pháp lý, chính trị, kinh tế. </t>
+  </si>
+  <si>
+    <t>Có khiếu về ca nhạc hay nói chung là tất cả những bộ môn văn nghệ.</t>
+  </si>
+  <si>
+    <t>Hồng Đào Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Hồng Đào Riêu Tấu Cơ Vũ hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyên vê múa, hát, tuồng, kịch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có võ chức, nhưng chuyên về việc văn phòng. </t>
+  </si>
+  <si>
+    <t>Bạch Hổ Tấu Thư đồng cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Có khiếu về văn chương. Học ngoại ngữ rất chóng thông hiểu. Về sau có danh chức khá lớn. Cầu danh rất dể dàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm thầy thuốc hay báo chí. </t>
+  </si>
+  <si>
+    <t>Chuyên về cơ khí, hay làm nghề vận tải</t>
+  </si>
+  <si>
+    <t>Công danh sớm đạt, mưu sự chóng thành tựu, công việc trước sau đều dễ dàng.</t>
+  </si>
+  <si>
+    <t>Thiên Lương Phá Quân đồng cung Quan Lộc</t>
+  </si>
+  <si>
+    <t>Võ nghiệp hiển đạt, rất dũng mãnh. Hay làm những việc mạo hiếm, sau có uy quyền khá lớn.</t>
+  </si>
+  <si>
+    <t>Phá Quân Phá Toái đồng cung Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -14895,10 +14962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:B4638"/>
+  <dimension ref="A2:B4646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4627" workbookViewId="0">
-      <selection activeCell="O4628" sqref="O4628"/>
+    <sheetView tabSelected="1" topLeftCell="A4635" workbookViewId="0">
+      <selection activeCell="D4644" sqref="D4644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47706,36 +47773,36 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="4102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4102" s="1" t="s">
         <v>4100</v>
       </c>
       <c r="B4102" s="1" t="s">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="4103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4103" s="1" t="s">
         <v>4101</v>
       </c>
       <c r="B4103" s="1" t="s">
-        <v>4101</v>
-      </c>
-    </row>
-    <row r="4104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4104" s="1" t="s">
         <v>4102</v>
       </c>
       <c r="B4104" s="1" t="s">
-        <v>4102</v>
-      </c>
-    </row>
-    <row r="4105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4105" s="1" t="s">
         <v>4103</v>
       </c>
       <c r="B4105" s="1" t="s">
-        <v>4103</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="4106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -47743,7 +47810,7 @@
         <v>4104</v>
       </c>
       <c r="B4106" s="1" t="s">
-        <v>4104</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="4107" spans="1:2" x14ac:dyDescent="0.25">
@@ -47759,7 +47826,7 @@
         <v>4106</v>
       </c>
       <c r="B4108" s="1" t="s">
-        <v>4106</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="4109" spans="1:2" x14ac:dyDescent="0.25">
@@ -47775,7 +47842,7 @@
         <v>4108</v>
       </c>
       <c r="B4110" s="1" t="s">
-        <v>4108</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="4111" spans="1:2" x14ac:dyDescent="0.25">
@@ -47783,15 +47850,15 @@
         <v>4109</v>
       </c>
       <c r="B4111" s="1" t="s">
-        <v>4109</v>
-      </c>
-    </row>
-    <row r="4112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4112" s="1" t="s">
         <v>4110</v>
       </c>
       <c r="B4112" s="1" t="s">
-        <v>4110</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="4113" spans="1:2" x14ac:dyDescent="0.25">
@@ -49911,6 +49978,9 @@
       <c r="A4379" s="1" t="s">
         <v>4477</v>
       </c>
+      <c r="B4379" s="1" t="s">
+        <v>4477</v>
+      </c>
     </row>
     <row r="4380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4380" s="1" t="s">
@@ -51982,6 +52052,70 @@
       </c>
       <c r="B4638" s="1" t="s">
         <v>4725</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4639" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B4639" s="1" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4640" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B4640" s="1" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4641" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B4641" s="1" t="s">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4642" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B4642" s="1" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4643" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B4643" s="1" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4644" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B4644" s="1" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4645" s="1" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B4645" s="1" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4646" s="1" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B4646" s="1" t="s">
+        <v>4750</v>
       </c>
     </row>
   </sheetData>
@@ -51992,12 +52126,12 @@
     <cfRule type="duplicateValues" dxfId="31" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="30" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="28" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
     <cfRule type="duplicateValues" dxfId="26" priority="73"/>
@@ -52015,56 +52149,52 @@
     <cfRule type="duplicateValues" dxfId="22" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6058:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A3313:A3684 A3747:A4045">
-    <cfRule type="duplicateValues" dxfId="21" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
     <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1681:B3210">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3685:B3746">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4097">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4145">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4264">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6058:B1048576 B2:B4045">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6058:B1048576 B1676:B1680 B2:B24 B26:B85 B144 B3313:B3684 B3747:B4045 B210:B1579">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4097">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4097">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4145">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4145">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9CFFD-71A1-49C7-A435-E0C4F40A043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5A7D7-F532-4147-94DC-9763E0D57DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14964,8 +14964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:B4646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4635" workbookViewId="0">
-      <selection activeCell="D4644" sqref="D4644"/>
+    <sheetView tabSelected="1" topLeftCell="A4629" workbookViewId="0">
+      <selection activeCell="F4638" sqref="F4638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B710E0B-DB0B-48D2-B1F8-5A1DC1A81DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA810CB1-2BC3-41E1-8081-E252CB350E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15264,8 +15264,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:E4639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4266" workbookViewId="0">
-      <selection activeCell="A4640" sqref="A4640"/>
+    <sheetView tabSelected="1" topLeftCell="A1965" workbookViewId="0">
+      <selection activeCell="D1987" sqref="D1987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52410,92 +52410,90 @@
   </autoFilter>
   <dataConsolidate/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="39" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="37" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="35" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
     <cfRule type="duplicateValues" dxfId="33" priority="80"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1681:A3203">
+    <cfRule type="duplicateValues" dxfId="32" priority="348"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2086 A2087:B1048576 A1:B2085">
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3678:A3739">
-    <cfRule type="duplicateValues" dxfId="32" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4257">
-    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6051:A1048576 A2:A4038">
-    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6051:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A3306:A3677 A3740:A4038">
-    <cfRule type="duplicateValues" dxfId="29" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2086 A2087:B1048576 A1:B2085">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
     <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2087:B3203 B1681:B2085">
-    <cfRule type="duplicateValues" dxfId="19" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2086">
     <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
     <cfRule type="duplicateValues" dxfId="16" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2087:B3203 B1681:B2085">
+    <cfRule type="duplicateValues" dxfId="14" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3678:B3739">
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4054">
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4090">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4138">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4257">
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6051:B1048576 B1676:B1680 B2:B24 B26:B85 B144 B3306:B3677 B3740:B4038 B210:B1579">
-    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6051:B1048576 B2087:B4038 B2:B2085">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4054">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4054">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1681:A3203">
-    <cfRule type="duplicateValues" dxfId="0" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E709F9-230E-484D-94C2-E807FC19CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9BF13-2EAD-4E50-904F-92A9EBE2AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7193" uniqueCount="3781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7265" uniqueCount="3853">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11398,6 +11398,222 @@
   </si>
   <si>
     <t>Là người hay giúp đỡ đồng nghiệp, lấy chí thành mà đãi người. Người được thượng hạ cấp quí trọng, nâng đỡ, người có chỗ làm, nghề nghiệp đúng sở thích, hay được may mắn trong quan trường, sự nghiệp. Người thường hay làm các công việc có thiện tính cao như thầy thuốc, bác sỹ, thầy giáo…các công việc liên quan tới giúp đời, cứu người. Trong công việc và học tập thường hay chia sẻ, giúp đỡ, hòa đồng với mọi người nên khi gặp chuyện hay cần gì luôn có người giúp đỡ, hỗ trợ. Là người luôn làm công việc thanh lương, trong sạch, không ưa cạnh tranh, kèn cựa, không bao giờ làm điều ác hay bất nhân để đạt được mục đích, do vậy nên rất được mọi người tin tưởng và ngưỡng mộ.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Thiên Di</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -11433,7 +11649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11441,11 +11657,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12132,10 +12361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:E3594"/>
+  <dimension ref="A2:G3608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3590" workbookViewId="0">
+      <selection activeCell="C3595" sqref="C3595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15868,7 +16097,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>521</v>
       </c>
@@ -18332,7 +18561,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>827</v>
       </c>
@@ -23180,7 +23409,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="1381" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
         <v>1414</v>
       </c>
@@ -24348,7 +24577,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
         <v>1560</v>
       </c>
@@ -24364,7 +24593,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="1529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
         <v>1562</v>
       </c>
@@ -40830,7 +41059,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="3585" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3585" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3585" s="1" t="s">
         <v>3778</v>
       </c>
@@ -40838,7 +41067,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="3586" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3586" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3586" s="1" t="s">
         <v>3779</v>
       </c>
@@ -40846,7 +41075,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="3587" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3587" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3587" s="1" t="s">
         <v>3671</v>
       </c>
@@ -40854,7 +41083,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="3588" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3588" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3588" s="1" t="s">
         <v>3672</v>
       </c>
@@ -40862,7 +41091,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="3589" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3589" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3589" s="1" t="s">
         <v>3677</v>
       </c>
@@ -40870,7 +41099,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="3590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3590" s="1" t="s">
         <v>3681</v>
       </c>
@@ -40878,7 +41107,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="3591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3591" s="1" t="s">
         <v>3682</v>
       </c>
@@ -40886,7 +41115,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="3592" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3592" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3592" s="1" t="s">
         <v>3685</v>
       </c>
@@ -40894,7 +41123,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="3593" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3593" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3593" s="1" t="s">
         <v>3690</v>
       </c>
@@ -40902,105 +41131,367 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="3594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3594" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3594" s="1" t="s">
         <v>3692</v>
       </c>
       <c r="B3594" s="1" t="s">
         <v>3691</v>
       </c>
+    </row>
+    <row r="3595" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3595" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3595" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C3595" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D3595" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E3595" s="1"/>
+      <c r="F3595" s="3"/>
+    </row>
+    <row r="3596" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3596" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3596" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C3596" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D3596" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E3596" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="F3596" s="1" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3597" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3597" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C3597" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D3597" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E3597" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="F3597" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="G3597" s="1" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3598" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3598" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C3598" s="1"/>
+      <c r="D3598" s="1"/>
+      <c r="E3598" s="1"/>
+      <c r="F3598" s="3"/>
+    </row>
+    <row r="3599" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3599" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3599" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C3599" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D3599" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="E3599" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="F3599" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="G3599" s="1" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3600" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3600" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C3600" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D3600" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="E3600" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="F3600" s="1" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3601" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3601" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C3601" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D3601" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="E3601" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="F3601" s="1" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3602" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3602" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C3602" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D3602" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E3602" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F3602" s="1" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3603" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3603" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C3603" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D3603" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E3603" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="F3603" s="1"/>
+    </row>
+    <row r="3604" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3604" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3604" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3604" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D3604" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E3604" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F3604" s="1" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3605" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3605" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C3605" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D3605" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="E3605" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F3605" s="1"/>
+      <c r="G3605" s="1"/>
+    </row>
+    <row r="3606" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3606" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B3606" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C3606" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D3606" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E3606" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F3606" s="1"/>
+      <c r="G3606" s="1"/>
+    </row>
+    <row r="3607" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3607" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B3607" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C3607" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D3607" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E3607" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F3607" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G3607" s="1" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3608" s="1"/>
+      <c r="D3608" s="1"/>
+      <c r="E3608" s="1"/>
+      <c r="F3608" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E3594" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="40" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="38" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="36" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="34" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2086 A1:B2085 A2087:B1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+  <conditionalFormatting sqref="A1681:A2536">
+    <cfRule type="duplicateValues" dxfId="34" priority="4156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2086 A1:B2085 A2087:B3594 A3609:B1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2633:A2694">
-    <cfRule type="duplicateValues" dxfId="32" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3212">
-    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5006:A1048576 A2:A2993">
-    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5006:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A2541:A2632 A2695:A2993">
-    <cfRule type="duplicateValues" dxfId="29" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B3594 A3609:B1048576">
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
     <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1681:B2085 B2087:B2536">
+    <cfRule type="duplicateValues" dxfId="19" priority="4158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2086">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
     <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2633:B2694">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3009">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3045">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3093">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3212">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5006:B1048576 B2:B2085 B2087:B2993">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5006:B1048576 B1676:B1680 B2:B24 B26:B85 B144 B2541:B2632 B2695:B2993 B210:B1579">
-    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5006:B1048576 B2:B2085 B2087:B2993">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1681:A2536">
-    <cfRule type="duplicateValues" dxfId="1" priority="4155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1681:B2085 B2087:B2536">
-    <cfRule type="duplicateValues" dxfId="0" priority="4157"/>
+  <conditionalFormatting sqref="A3595:B3608">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9BF13-2EAD-4E50-904F-92A9EBE2AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE77DA0-3B8E-49AB-9701-E996CBB3B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$E$3594</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$E$3502</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7265" uniqueCount="3853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="3748">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -9334,321 +9334,6 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Cự Môn tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Tướng tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Lương tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thất Sát tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Phá Quân tọa thủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thái Dương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Dương đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Tham Lang tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thái Âm đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang đồng cung Cự Môn tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Tham Lang đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Cự Môn đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Cự Môn đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Cự Môn đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Lương đồng cung Thất Sát tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Lương đồng cung Phá Quân tại cung đối Phu Thê</t>
-  </si>
-  <si>
-    <t>Thất Sát đồng cung Phá Quân tại cung đối Phu Thê</t>
   </si>
   <si>
     <t>Ân Quang Thiên Quý Thai Cáo hội chiếu tại Mệnh</t>
@@ -11400,9 +11085,6 @@
     <t>Là người hay giúp đỡ đồng nghiệp, lấy chí thành mà đãi người. Người được thượng hạ cấp quí trọng, nâng đỡ, người có chỗ làm, nghề nghiệp đúng sở thích, hay được may mắn trong quan trường, sự nghiệp. Người thường hay làm các công việc có thiện tính cao như thầy thuốc, bác sỹ, thầy giáo…các công việc liên quan tới giúp đời, cứu người. Trong công việc và học tập thường hay chia sẻ, giúp đỡ, hòa đồng với mọi người nên khi gặp chuyện hay cần gì luôn có người giúp đỡ, hỗ trợ. Là người luôn làm công việc thanh lương, trong sạch, không ưa cạnh tranh, kèn cựa, không bao giờ làm điều ác hay bất nhân để đạt được mục đích, do vậy nên rất được mọi người tin tưởng và ngưỡng mộ.</t>
   </si>
   <si>
-    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
   </si>
   <si>
@@ -11412,9 +11094,6 @@
     <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
   </si>
   <si>
-    <t>Thái Dương đồng cung Thiên Lương tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
   </si>
   <si>
@@ -11430,9 +11109,6 @@
     <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
   </si>
   <si>
-    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Là cách cục đại cát, phú quý lâu dài</t>
   </si>
   <si>
@@ -11451,15 +11127,9 @@
     <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
   </si>
   <si>
-    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
   </si>
   <si>
-    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
   </si>
   <si>
@@ -11478,9 +11148,6 @@
     <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung Tham Lang tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
   </si>
   <si>
@@ -11496,9 +11163,6 @@
     <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
   </si>
   <si>
-    <t>Thái Dương đồng cung Thái Âm tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
   </si>
   <si>
@@ -11514,9 +11178,6 @@
     <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
   </si>
   <si>
-    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
   </si>
   <si>
@@ -11532,9 +11193,6 @@
     <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
   </si>
   <si>
-    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
   </si>
   <si>
@@ -11547,9 +11205,6 @@
     <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
   </si>
   <si>
-    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
   </si>
   <si>
@@ -11565,9 +11220,6 @@
     <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
   </si>
   <si>
-    <t>Thái Dương đồng cung Cự Môn tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
   </si>
   <si>
@@ -11580,9 +11232,6 @@
     <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
   </si>
   <si>
-    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
   </si>
   <si>
@@ -11595,9 +11244,6 @@
     <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
   </si>
   <si>
-    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Thiên Di</t>
-  </si>
-  <si>
     <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
   </si>
   <si>
@@ -11614,6 +11260,45 @@
   </si>
   <si>
     <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Phu Thê</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -11664,428 +11349,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12361,10 +11625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G3608"/>
+  <dimension ref="A2:G3503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3590" workbookViewId="0">
-      <selection activeCell="C3595" sqref="C3595"/>
+    <sheetView tabSelected="1" topLeftCell="A3502" workbookViewId="0">
+      <selection activeCell="C3502" sqref="C3502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12387,7 +11651,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3693</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -12395,7 +11659,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3695</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12403,7 +11667,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3696</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -12411,10 +11675,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3697</v>
+        <v>3592</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3698</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -12422,7 +11686,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3699</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -12430,7 +11694,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3700</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13990,7 +13254,7 @@
         <v>260</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>3262</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -21750,7 +21014,7 @@
         <v>1210</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>3253</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24566,7 +23830,7 @@
         <v>1558</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>3645</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1526" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -24574,7 +23838,7 @@
         <v>1559</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>3646</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -24582,7 +23846,7 @@
         <v>1560</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>3647</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
@@ -24590,7 +23854,7 @@
         <v>1561</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>3648</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1529" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -24598,7 +23862,7 @@
         <v>1562</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>3647</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24758,7 +24022,7 @@
         <v>27</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>3259</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
@@ -24774,7 +24038,7 @@
         <v>29</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>3287</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
@@ -24798,13 +24062,13 @@
         <v>32</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>3701</v>
+        <v>3596</v>
       </c>
       <c r="C1554" s="1" t="s">
-        <v>3702</v>
+        <v>3597</v>
       </c>
       <c r="D1554" s="1" t="s">
-        <v>3703</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1555" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -24812,7 +24076,7 @@
         <v>33</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>3694</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1556" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -24820,10 +24084,10 @@
         <v>34</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>3704</v>
+        <v>3599</v>
       </c>
       <c r="C1556" s="1" t="s">
-        <v>3705</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1557" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -24831,7 +24095,7 @@
         <v>35</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>3706</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1558" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -24839,7 +24103,7 @@
         <v>36</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>3707</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1559" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -24847,7 +24111,7 @@
         <v>37</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>3708</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1560" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -24855,7 +24119,7 @@
         <v>38</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>3709</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="1561" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -24863,7 +24127,7 @@
         <v>39</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>3710</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
@@ -24887,16 +24151,16 @@
         <v>42</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>3711</v>
+        <v>3606</v>
       </c>
       <c r="C1564" t="s">
-        <v>3712</v>
+        <v>3607</v>
       </c>
       <c r="D1564" t="s">
-        <v>3713</v>
+        <v>3608</v>
       </c>
       <c r="E1564" t="s">
-        <v>3714</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1565" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -24904,7 +24168,7 @@
         <v>43</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>3715</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
@@ -24941,10 +24205,10 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
-        <v>3775</v>
+        <v>3670</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>3775</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
@@ -25032,7 +24296,7 @@
         <v>58</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>3270</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="1582" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25048,7 +24312,7 @@
         <v>60</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>3277</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="1584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25077,10 +24341,10 @@
     </row>
     <row r="1587" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>3716</v>
+        <v>3611</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>3717</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -25088,7 +24352,7 @@
         <v>1584</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>3718</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1589" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25096,7 +24360,7 @@
         <v>1585</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>3746</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25104,7 +24368,7 @@
         <v>1586</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>3746</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1591" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -25112,7 +24376,7 @@
         <v>1587</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>3747</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1592" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -25120,7 +24384,7 @@
         <v>1588</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>3748</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
@@ -25216,7 +24480,7 @@
         <v>1600</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>3749</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
@@ -25480,7 +24744,7 @@
         <v>1633</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3750</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
@@ -25560,7 +24824,7 @@
         <v>1643</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>3750</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
@@ -25736,7 +25000,7 @@
         <v>1665</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>3751</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
@@ -25832,7 +25096,7 @@
         <v>1677</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>3752</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
@@ -26008,7 +25272,7 @@
         <v>1699</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>3753</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
@@ -26096,7 +25360,7 @@
         <v>1710</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>3754</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
@@ -26176,7 +25440,7 @@
         <v>1720</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>3755</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -26448,7 +25712,7 @@
         <v>1754</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>3756</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
@@ -26616,7 +25880,7 @@
         <v>1775</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>3757</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
@@ -26712,7 +25976,7 @@
         <v>1787</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>3757</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
@@ -26800,7 +26064,7 @@
         <v>1798</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>3758</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
@@ -26888,7 +26152,7 @@
         <v>1809</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>3759</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
@@ -27136,7 +26400,7 @@
         <v>1840</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>3760</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
@@ -27216,7 +26480,7 @@
         <v>1850</v>
       </c>
       <c r="B1854" s="1" t="s">
-        <v>3760</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
@@ -27304,7 +26568,7 @@
         <v>1861</v>
       </c>
       <c r="B1865" s="1" t="s">
-        <v>3761</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
@@ -27392,7 +26656,7 @@
         <v>1872</v>
       </c>
       <c r="B1876" s="1" t="s">
-        <v>3762</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
@@ -27576,7 +26840,7 @@
         <v>1895</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>3763</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
@@ -27664,7 +26928,7 @@
         <v>1906</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>3764</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
@@ -27752,7 +27016,7 @@
         <v>1917</v>
       </c>
       <c r="B1921" s="1" t="s">
-        <v>3765</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="1922" spans="1:3" x14ac:dyDescent="0.25">
@@ -27840,10 +27104,10 @@
         <v>1928</v>
       </c>
       <c r="B1932" s="1" t="s">
-        <v>3766</v>
+        <v>3661</v>
       </c>
       <c r="C1932" s="2" t="s">
-        <v>3767</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
@@ -27931,7 +27195,7 @@
         <v>1939</v>
       </c>
       <c r="B1943" s="1" t="s">
-        <v>3768</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
@@ -28019,10 +27283,10 @@
         <v>1950</v>
       </c>
       <c r="B1954" s="1" t="s">
-        <v>3769</v>
+        <v>3664</v>
       </c>
       <c r="C1954" s="1" t="s">
-        <v>3770</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
@@ -28110,10 +27374,10 @@
         <v>1961</v>
       </c>
       <c r="B1965" s="1" t="s">
-        <v>3769</v>
+        <v>3664</v>
       </c>
       <c r="C1965" s="1" t="s">
-        <v>3770</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
@@ -28201,7 +27465,7 @@
         <v>1972</v>
       </c>
       <c r="B1976" s="1" t="s">
-        <v>3771</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
@@ -28289,7 +27553,7 @@
         <v>1983</v>
       </c>
       <c r="B1987" s="1" t="s">
-        <v>3772</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
@@ -28641,7 +27905,7 @@
         <v>2038</v>
       </c>
       <c r="B2031" s="1" t="s">
-        <v>3780</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
@@ -28729,7 +27993,7 @@
         <v>2027</v>
       </c>
       <c r="B2042" s="1" t="s">
-        <v>3780</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
@@ -28817,7 +28081,7 @@
         <v>2049</v>
       </c>
       <c r="B2053" s="1" t="s">
-        <v>3774</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
@@ -28905,7 +28169,7 @@
         <v>2060</v>
       </c>
       <c r="B2064" s="1" t="s">
-        <v>3773</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
@@ -29081,10 +28345,10 @@
         <v>2082</v>
       </c>
       <c r="B2086" s="1" t="s">
-        <v>3704</v>
+        <v>3599</v>
       </c>
       <c r="C2086" s="1" t="s">
-        <v>3705</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2087" spans="1:3" x14ac:dyDescent="0.25">
@@ -29172,7 +28436,7 @@
         <v>2093</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>3719</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
@@ -29252,7 +28516,7 @@
         <v>2103</v>
       </c>
       <c r="B2107" s="1" t="s">
-        <v>3720</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
@@ -29692,7 +28956,7 @@
         <v>2158</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>3721</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.25">
@@ -29780,7 +29044,7 @@
         <v>2432</v>
       </c>
       <c r="B2173" s="1" t="s">
-        <v>3722</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.25">
@@ -29868,7 +29132,7 @@
         <v>2443</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>3723</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
@@ -29956,7 +29220,7 @@
         <v>2191</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>3724</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
@@ -30044,7 +29308,7 @@
         <v>2180</v>
       </c>
       <c r="B2206" s="1" t="s">
-        <v>3725</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
@@ -30212,7 +29476,7 @@
         <v>2464</v>
       </c>
       <c r="B2227" s="1" t="s">
-        <v>3726</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.25">
@@ -30300,7 +29564,7 @@
         <v>2475</v>
       </c>
       <c r="B2238" s="1" t="s">
-        <v>3727</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
@@ -30396,7 +29660,7 @@
         <v>2487</v>
       </c>
       <c r="B2250" s="1" t="s">
-        <v>3728</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.25">
@@ -30484,7 +29748,7 @@
         <v>2498</v>
       </c>
       <c r="B2261" s="1" t="s">
-        <v>3729</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
@@ -30572,7 +29836,7 @@
         <v>2509</v>
       </c>
       <c r="B2272" s="1" t="s">
-        <v>3730</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
@@ -30740,7 +30004,7 @@
         <v>2530</v>
       </c>
       <c r="B2293" s="1" t="s">
-        <v>3731</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.25">
@@ -30836,7 +30100,7 @@
         <v>2169</v>
       </c>
       <c r="B2305" s="1" t="s">
-        <v>3732</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.25">
@@ -31068,7 +30332,7 @@
         <v>2209</v>
       </c>
       <c r="B2334" s="1" t="s">
-        <v>3212</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
@@ -31116,7 +30380,7 @@
         <v>2215</v>
       </c>
       <c r="B2340" s="1" t="s">
-        <v>3210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.25">
@@ -31164,7 +30428,7 @@
         <v>2221</v>
       </c>
       <c r="B2346" s="1" t="s">
-        <v>3264</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="2347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31172,7 +30436,7 @@
         <v>2222</v>
       </c>
       <c r="B2347" s="1" t="s">
-        <v>3264</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.25">
@@ -31204,7 +30468,7 @@
         <v>2226</v>
       </c>
       <c r="B2351" s="1" t="s">
-        <v>3263</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="2352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31212,7 +30476,7 @@
         <v>2227</v>
       </c>
       <c r="B2352" s="1" t="s">
-        <v>3263</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="2353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31220,7 +30484,7 @@
         <v>2228</v>
       </c>
       <c r="B2353" s="1" t="s">
-        <v>3263</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
@@ -31252,7 +30516,7 @@
         <v>2232</v>
       </c>
       <c r="B2357" s="1" t="s">
-        <v>3264</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="2358" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -31260,7 +30524,7 @@
         <v>2233</v>
       </c>
       <c r="B2358" s="1" t="s">
-        <v>3256</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.25">
@@ -31292,7 +30556,7 @@
         <v>2237</v>
       </c>
       <c r="B2362" s="1" t="s">
-        <v>3255</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
@@ -31308,7 +30572,7 @@
         <v>2239</v>
       </c>
       <c r="B2364" s="1" t="s">
-        <v>3254</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="2365" spans="1:2" x14ac:dyDescent="0.25">
@@ -31340,7 +30604,7 @@
         <v>2243</v>
       </c>
       <c r="B2368" s="1" t="s">
-        <v>3257</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="2369" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -31348,7 +30612,7 @@
         <v>2244</v>
       </c>
       <c r="B2369" s="1" t="s">
-        <v>3257</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="2370" spans="1:2" x14ac:dyDescent="0.25">
@@ -31388,7 +30652,7 @@
         <v>2249</v>
       </c>
       <c r="B2374" s="1" t="s">
-        <v>3244</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="2375" spans="1:2" x14ac:dyDescent="0.25">
@@ -31436,7 +30700,7 @@
         <v>2255</v>
       </c>
       <c r="B2380" s="1" t="s">
-        <v>3244</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
@@ -31476,7 +30740,7 @@
         <v>2260</v>
       </c>
       <c r="B2385" s="1" t="s">
-        <v>3232</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="2386" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31484,7 +30748,7 @@
         <v>2261</v>
       </c>
       <c r="B2386" s="1" t="s">
-        <v>3235</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="2387" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -31492,7 +30756,7 @@
         <v>2262</v>
       </c>
       <c r="B2387" s="1" t="s">
-        <v>3234</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="2388" spans="1:2" x14ac:dyDescent="0.25">
@@ -31524,7 +30788,7 @@
         <v>2266</v>
       </c>
       <c r="B2391" s="1" t="s">
-        <v>3233</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="2392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31532,7 +30796,7 @@
         <v>2267</v>
       </c>
       <c r="B2392" s="1" t="s">
-        <v>3235</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="2393" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -31540,7 +30804,7 @@
         <v>2268</v>
       </c>
       <c r="B2393" s="1" t="s">
-        <v>3234</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="2394" spans="1:2" x14ac:dyDescent="0.25">
@@ -31564,7 +30828,7 @@
         <v>2271</v>
       </c>
       <c r="B2396" s="1" t="s">
-        <v>3221</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="2397" spans="1:2" x14ac:dyDescent="0.25">
@@ -31612,7 +30876,7 @@
         <v>2277</v>
       </c>
       <c r="B2402" s="1" t="s">
-        <v>3221</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="2403" spans="1:2" x14ac:dyDescent="0.25">
@@ -31652,7 +30916,7 @@
         <v>2282</v>
       </c>
       <c r="B2407" s="1" t="s">
-        <v>3271</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="2408" spans="1:2" x14ac:dyDescent="0.25">
@@ -31668,7 +30932,7 @@
         <v>2284</v>
       </c>
       <c r="B2409" s="1" t="s">
-        <v>3271</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="2410" spans="1:2" x14ac:dyDescent="0.25">
@@ -31692,7 +30956,7 @@
         <v>2287</v>
       </c>
       <c r="B2412" s="1" t="s">
-        <v>3271</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="2413" spans="1:2" x14ac:dyDescent="0.25">
@@ -31708,7 +30972,7 @@
         <v>2289</v>
       </c>
       <c r="B2414" s="1" t="s">
-        <v>3271</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="2415" spans="1:2" x14ac:dyDescent="0.25">
@@ -31724,7 +30988,7 @@
         <v>2291</v>
       </c>
       <c r="B2416" s="1" t="s">
-        <v>3270</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="2417" spans="1:2" x14ac:dyDescent="0.25">
@@ -31756,7 +31020,7 @@
         <v>2295</v>
       </c>
       <c r="B2420" s="1" t="s">
-        <v>3274</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="2421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -31764,7 +31028,7 @@
         <v>2296</v>
       </c>
       <c r="B2421" s="1" t="s">
-        <v>3275</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="2422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -31772,7 +31036,7 @@
         <v>2297</v>
       </c>
       <c r="B2422" s="1" t="s">
-        <v>3275</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="2423" spans="1:2" x14ac:dyDescent="0.25">
@@ -31804,7 +31068,7 @@
         <v>2301</v>
       </c>
       <c r="B2426" s="1" t="s">
-        <v>3272</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2427" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -31812,7 +31076,7 @@
         <v>2302</v>
       </c>
       <c r="B2427" s="1" t="s">
-        <v>3273</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="2428" spans="1:2" x14ac:dyDescent="0.25">
@@ -31820,7 +31084,7 @@
         <v>2303</v>
       </c>
       <c r="B2428" s="1" t="s">
-        <v>3272</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2429" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31828,7 +31092,7 @@
         <v>2304</v>
       </c>
       <c r="B2429" s="1" t="s">
-        <v>3280</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="2430" spans="1:2" x14ac:dyDescent="0.25">
@@ -31844,7 +31108,7 @@
         <v>2306</v>
       </c>
       <c r="B2431" s="1" t="s">
-        <v>3279</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="2432" spans="1:2" x14ac:dyDescent="0.25">
@@ -31860,7 +31124,7 @@
         <v>2308</v>
       </c>
       <c r="B2433" s="1" t="s">
-        <v>3278</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="2434" spans="1:2" x14ac:dyDescent="0.25">
@@ -31876,7 +31140,7 @@
         <v>2310</v>
       </c>
       <c r="B2435" s="1" t="s">
-        <v>3280</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="2436" spans="1:2" x14ac:dyDescent="0.25">
@@ -31892,7 +31156,7 @@
         <v>2312</v>
       </c>
       <c r="B2437" s="1" t="s">
-        <v>3279</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="2438" spans="1:2" x14ac:dyDescent="0.25">
@@ -31908,7 +31172,7 @@
         <v>2314</v>
       </c>
       <c r="B2439" s="1" t="s">
-        <v>3278</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="2440" spans="1:2" x14ac:dyDescent="0.25">
@@ -31924,7 +31188,7 @@
         <v>2316</v>
       </c>
       <c r="B2441" s="1" t="s">
-        <v>3281</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="2442" spans="1:2" x14ac:dyDescent="0.25">
@@ -31956,7 +31220,7 @@
         <v>2320</v>
       </c>
       <c r="B2445" s="1" t="s">
-        <v>3284</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="2446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -31964,7 +31228,7 @@
         <v>2321</v>
       </c>
       <c r="B2446" s="1" t="s">
-        <v>3283</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="2447" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -31972,7 +31236,7 @@
         <v>2322</v>
       </c>
       <c r="B2447" s="1" t="s">
-        <v>3281</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="2448" spans="1:2" x14ac:dyDescent="0.25">
@@ -32004,7 +31268,7 @@
         <v>2326</v>
       </c>
       <c r="B2451" s="1" t="s">
-        <v>3284</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="2452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -32012,7 +31276,7 @@
         <v>2327</v>
       </c>
       <c r="B2452" s="1" t="s">
-        <v>3282</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2453" spans="1:2" x14ac:dyDescent="0.25">
@@ -32028,7 +31292,7 @@
         <v>2329</v>
       </c>
       <c r="B2454" s="1" t="s">
-        <v>3285</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="2455" spans="1:2" x14ac:dyDescent="0.25">
@@ -32044,7 +31308,7 @@
         <v>2331</v>
       </c>
       <c r="B2456" s="1" t="s">
-        <v>3287</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="2457" spans="1:2" x14ac:dyDescent="0.25">
@@ -32060,7 +31324,7 @@
         <v>2333</v>
       </c>
       <c r="B2458" s="1" t="s">
-        <v>3286</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="2459" spans="1:2" x14ac:dyDescent="0.25">
@@ -32076,7 +31340,7 @@
         <v>2335</v>
       </c>
       <c r="B2460" s="1" t="s">
-        <v>3285</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="2461" spans="1:2" x14ac:dyDescent="0.25">
@@ -32100,7 +31364,7 @@
         <v>2338</v>
       </c>
       <c r="B2463" s="1" t="s">
-        <v>3286</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="2464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32108,7 +31372,7 @@
         <v>2339</v>
       </c>
       <c r="B2464" s="1" t="s">
-        <v>3288</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="2465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32116,7 +31380,7 @@
         <v>2340</v>
       </c>
       <c r="B2465" s="1" t="s">
-        <v>3289</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="2466" spans="1:2" x14ac:dyDescent="0.25">
@@ -32148,7 +31412,7 @@
         <v>2344</v>
       </c>
       <c r="B2469" s="1" t="s">
-        <v>3234</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="2470" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32156,7 +31420,7 @@
         <v>2345</v>
       </c>
       <c r="B2470" s="1" t="s">
-        <v>3288</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="2471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32164,7 +31428,7 @@
         <v>2346</v>
       </c>
       <c r="B2471" s="1" t="s">
-        <v>3289</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="2472" spans="1:2" x14ac:dyDescent="0.25">
@@ -32196,7 +31460,7 @@
         <v>2350</v>
       </c>
       <c r="B2475" s="1" t="s">
-        <v>3234</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="2476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32204,7 +31468,7 @@
         <v>2351</v>
       </c>
       <c r="B2476" s="1" t="s">
-        <v>3291</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="2477" spans="1:2" x14ac:dyDescent="0.25">
@@ -32220,7 +31484,7 @@
         <v>2353</v>
       </c>
       <c r="B2478" s="1" t="s">
-        <v>3290</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="2479" spans="1:2" x14ac:dyDescent="0.25">
@@ -32236,7 +31500,7 @@
         <v>2355</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>3292</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2481" spans="1:2" x14ac:dyDescent="0.25">
@@ -32252,7 +31516,7 @@
         <v>2357</v>
       </c>
       <c r="B2482" s="1" t="s">
-        <v>3291</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="2483" spans="1:2" x14ac:dyDescent="0.25">
@@ -32268,7 +31532,7 @@
         <v>2359</v>
       </c>
       <c r="B2484" s="1" t="s">
-        <v>3290</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="2485" spans="1:2" x14ac:dyDescent="0.25">
@@ -32284,7 +31548,7 @@
         <v>2361</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>3292</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2487" spans="1:2" x14ac:dyDescent="0.25">
@@ -32300,7 +31564,7 @@
         <v>2363</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>3293</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="2489" spans="1:2" x14ac:dyDescent="0.25">
@@ -32316,7 +31580,7 @@
         <v>2365</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>3295</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="2491" spans="1:2" x14ac:dyDescent="0.25">
@@ -32332,7 +31596,7 @@
         <v>2367</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>3294</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -32348,7 +31612,7 @@
         <v>2369</v>
       </c>
       <c r="B2494" s="1" t="s">
-        <v>3293</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="2495" spans="1:2" x14ac:dyDescent="0.25">
@@ -32364,7 +31628,7 @@
         <v>2371</v>
       </c>
       <c r="B2496" s="1" t="s">
-        <v>3295</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="2497" spans="1:2" x14ac:dyDescent="0.25">
@@ -32380,7 +31644,7 @@
         <v>2373</v>
       </c>
       <c r="B2498" s="1" t="s">
-        <v>3294</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.25">
@@ -32484,7 +31748,7 @@
         <v>2386</v>
       </c>
       <c r="B2511" s="1" t="s">
-        <v>3265</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="2512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32492,7 +31756,7 @@
         <v>2387</v>
       </c>
       <c r="B2512" s="1" t="s">
-        <v>3265</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="2513" spans="1:2" x14ac:dyDescent="0.25">
@@ -32540,7 +31804,7 @@
         <v>2393</v>
       </c>
       <c r="B2518" s="1" t="s">
-        <v>3258</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="2519" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -32548,7 +31812,7 @@
         <v>2394</v>
       </c>
       <c r="B2519" s="1" t="s">
-        <v>3261</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="2520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -32556,7 +31820,7 @@
         <v>2395</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>3260</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.25">
@@ -32620,7 +31884,7 @@
         <v>2403</v>
       </c>
       <c r="B2528" s="1" t="s">
-        <v>3276</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="2529" spans="1:2" x14ac:dyDescent="0.25">
@@ -33524,7 +32788,7 @@
         <v>2637</v>
       </c>
       <c r="B2641" s="1" t="s">
-        <v>3733</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="2642" spans="1:2" x14ac:dyDescent="0.25">
@@ -33788,7 +33052,7 @@
         <v>2670</v>
       </c>
       <c r="B2674" s="1" t="s">
-        <v>3734</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="2675" spans="1:2" x14ac:dyDescent="0.25">
@@ -33868,7 +33132,7 @@
         <v>2680</v>
       </c>
       <c r="B2684" s="1" t="s">
-        <v>3735</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="2685" spans="1:2" x14ac:dyDescent="0.25">
@@ -33956,7 +33220,7 @@
         <v>2691</v>
       </c>
       <c r="B2695" s="1" t="s">
-        <v>3736</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2696" spans="1:2" x14ac:dyDescent="0.25">
@@ -34228,7 +33492,7 @@
         <v>2725</v>
       </c>
       <c r="B2729" s="1" t="s">
-        <v>3737</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="2730" spans="1:2" x14ac:dyDescent="0.25">
@@ -34316,7 +33580,7 @@
         <v>2736</v>
       </c>
       <c r="B2740" s="1" t="s">
-        <v>3738</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="2741" spans="1:2" x14ac:dyDescent="0.25">
@@ -34676,7 +33940,7 @@
         <v>2781</v>
       </c>
       <c r="B2785" s="1" t="s">
-        <v>3739</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2786" spans="1:2" x14ac:dyDescent="0.25">
@@ -34756,7 +34020,7 @@
         <v>2791</v>
       </c>
       <c r="B2795" s="1" t="s">
-        <v>3740</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="2796" spans="1:2" x14ac:dyDescent="0.25">
@@ -34940,7 +34204,7 @@
         <v>2814</v>
       </c>
       <c r="B2818" s="1" t="s">
-        <v>3741</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2819" spans="1:2" x14ac:dyDescent="0.25">
@@ -35028,7 +34292,7 @@
         <v>2825</v>
       </c>
       <c r="B2829" s="1" t="s">
-        <v>3742</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="2830" spans="1:2" x14ac:dyDescent="0.25">
@@ -35476,7 +34740,7 @@
         <v>2881</v>
       </c>
       <c r="B2885" s="1" t="s">
-        <v>3743</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
@@ -36028,10 +35292,10 @@
         <v>2950</v>
       </c>
       <c r="B2954" s="1" t="s">
-        <v>3744</v>
+        <v>3639</v>
       </c>
       <c r="C2954" s="1" t="s">
-        <v>3745</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="2955" spans="1:3" x14ac:dyDescent="0.25">
@@ -36471,7 +35735,7 @@
         <v>3005</v>
       </c>
       <c r="B3009" s="1" t="s">
-        <v>3742</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
@@ -36655,7 +35919,7 @@
         <v>3028</v>
       </c>
       <c r="B3032" s="1" t="s">
-        <v>3644</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="3033" spans="1:2" x14ac:dyDescent="0.25">
@@ -36711,7 +35975,7 @@
         <v>3035</v>
       </c>
       <c r="B3039" s="1" t="s">
-        <v>3649</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="3040" spans="1:2" x14ac:dyDescent="0.25">
@@ -36759,7 +36023,7 @@
         <v>3041</v>
       </c>
       <c r="B3045" s="1" t="s">
-        <v>3647</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="3046" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36799,7 +36063,7 @@
         <v>3046</v>
       </c>
       <c r="B3050" s="1" t="s">
-        <v>3674</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="3051" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36807,7 +36071,7 @@
         <v>3047</v>
       </c>
       <c r="B3051" s="1" t="s">
-        <v>3675</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="3052" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36815,7 +36079,7 @@
         <v>3048</v>
       </c>
       <c r="B3052" s="1" t="s">
-        <v>3676</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="3053" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36823,7 +36087,7 @@
         <v>3049</v>
       </c>
       <c r="B3053" s="1" t="s">
-        <v>3679</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="3054" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36831,7 +36095,7 @@
         <v>3050</v>
       </c>
       <c r="B3054" s="1" t="s">
-        <v>3680</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="3055" spans="1:2" x14ac:dyDescent="0.25">
@@ -36847,7 +36111,7 @@
         <v>3052</v>
       </c>
       <c r="B3056" s="1" t="s">
-        <v>3684</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.25">
@@ -36863,7 +36127,7 @@
         <v>3054</v>
       </c>
       <c r="B3058" s="1" t="s">
-        <v>3687</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="3059" spans="1:2" x14ac:dyDescent="0.25">
@@ -36871,7 +36135,7 @@
         <v>3055</v>
       </c>
       <c r="B3059" s="1" t="s">
-        <v>3688</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="3060" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36879,7 +36143,7 @@
         <v>3056</v>
       </c>
       <c r="B3060" s="1" t="s">
-        <v>3689</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="3061" spans="1:2" x14ac:dyDescent="0.25">
@@ -37023,7 +36287,7 @@
         <v>3074</v>
       </c>
       <c r="B3078" s="1" t="s">
-        <v>3663</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="3079" spans="1:2" x14ac:dyDescent="0.25">
@@ -37039,7 +36303,7 @@
         <v>3076</v>
       </c>
       <c r="B3080" s="1" t="s">
-        <v>3645</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="3081" spans="1:2" x14ac:dyDescent="0.25">
@@ -37143,7 +36407,7 @@
         <v>3089</v>
       </c>
       <c r="B3093" s="1" t="s">
-        <v>3647</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="3094" spans="1:2" x14ac:dyDescent="0.25">
@@ -37250,9 +36514,9 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="3107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3107" s="1" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="B3107" s="1" t="s">
         <v>3103</v>
@@ -37260,2979 +36524,2979 @@
     </row>
     <row r="3108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3108" s="1" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="B3108" s="1" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="3109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3109" s="1" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="B3109" s="1" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="3110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3110" s="1" t="s">
-        <v>3106</v>
+        <v>3110</v>
       </c>
       <c r="B3110" s="1" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="3111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3111" s="1" t="s">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="B3111" s="1" t="s">
-        <v>3107</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3112" s="1" t="s">
-        <v>3108</v>
+        <v>3114</v>
       </c>
       <c r="B3112" s="1" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="3113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3113" s="1" t="s">
-        <v>3109</v>
+        <v>3117</v>
       </c>
       <c r="B3113" s="1" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="3114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3114" s="1" t="s">
-        <v>3110</v>
+        <v>3119</v>
       </c>
       <c r="B3114" s="1" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="3115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3115" s="1" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="B3115" s="1" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="3116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3116" s="1" t="s">
-        <v>3112</v>
+        <v>3123</v>
       </c>
       <c r="B3116" s="1" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3117" s="1" t="s">
-        <v>3113</v>
+        <v>3125</v>
       </c>
       <c r="B3117" s="1" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="3118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3118" s="1" t="s">
-        <v>3114</v>
+        <v>3131</v>
       </c>
       <c r="B3118" s="1" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3119" s="1" t="s">
-        <v>3115</v>
+        <v>3132</v>
       </c>
       <c r="B3119" s="1" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3120" s="1" t="s">
-        <v>3116</v>
+        <v>3135</v>
       </c>
       <c r="B3120" s="1" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3121" s="1" t="s">
-        <v>3117</v>
+        <v>3137</v>
       </c>
       <c r="B3121" s="1" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3122" s="1" t="s">
-        <v>3118</v>
+        <v>3140</v>
       </c>
       <c r="B3122" s="1" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3123" s="1" t="s">
-        <v>3119</v>
+        <v>3142</v>
       </c>
       <c r="B3123" s="1" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3124" s="1" t="s">
-        <v>3120</v>
+        <v>3144</v>
       </c>
       <c r="B3124" s="1" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3125" s="1" t="s">
-        <v>3121</v>
+        <v>3146</v>
       </c>
       <c r="B3125" s="1" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3126" s="1" t="s">
-        <v>3122</v>
+        <v>3161</v>
       </c>
       <c r="B3126" s="1" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3127" s="1" t="s">
-        <v>3123</v>
+        <v>3163</v>
       </c>
       <c r="B3127" s="1" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3128" s="1" t="s">
-        <v>3124</v>
+        <v>3191</v>
       </c>
       <c r="B3128" s="1" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3129" s="1" t="s">
-        <v>3125</v>
+        <v>3229</v>
       </c>
       <c r="B3129" s="1" t="s">
-        <v>3125</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3130" s="1" t="s">
-        <v>3126</v>
+        <v>3193</v>
       </c>
       <c r="B3130" s="1" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3131" s="1" t="s">
-        <v>3127</v>
+        <v>3192</v>
       </c>
       <c r="B3131" s="1" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3132" s="1" t="s">
-        <v>3128</v>
+        <v>3233</v>
       </c>
       <c r="B3132" s="1" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3133" s="1" t="s">
-        <v>3129</v>
+        <v>3234</v>
       </c>
       <c r="B3133" s="1" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3134" s="1" t="s">
-        <v>3130</v>
+        <v>3235</v>
       </c>
       <c r="B3134" s="1" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3135" s="1" t="s">
-        <v>3131</v>
+        <v>3236</v>
       </c>
       <c r="B3135" s="1" t="s">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3136" s="1" t="s">
-        <v>3132</v>
+        <v>3237</v>
       </c>
       <c r="B3136" s="1" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3137" s="1" t="s">
-        <v>3133</v>
+        <v>3238</v>
       </c>
       <c r="B3137" s="1" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3138" s="1" t="s">
-        <v>3134</v>
+        <v>3239</v>
       </c>
       <c r="B3138" s="1" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3139" s="1" t="s">
-        <v>3135</v>
+        <v>3240</v>
       </c>
       <c r="B3139" s="1" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3140" s="1" t="s">
-        <v>3136</v>
+        <v>3241</v>
       </c>
       <c r="B3140" s="1" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3141" s="1" t="s">
-        <v>3137</v>
+        <v>3242</v>
       </c>
       <c r="B3141" s="1" t="s">
-        <v>3137</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3142" s="1" t="s">
-        <v>3138</v>
+        <v>3194</v>
       </c>
       <c r="B3142" s="1" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3143" s="1" t="s">
-        <v>3139</v>
+        <v>3243</v>
       </c>
       <c r="B3143" s="1" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3144" s="1" t="s">
-        <v>3140</v>
+        <v>3244</v>
       </c>
       <c r="B3144" s="1" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3145" s="1" t="s">
-        <v>3141</v>
+        <v>3245</v>
       </c>
       <c r="B3145" s="1" t="s">
-        <v>3141</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3146" s="1" t="s">
-        <v>3142</v>
+        <v>3246</v>
       </c>
       <c r="B3146" s="1" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3147" s="1" t="s">
-        <v>3143</v>
+        <v>3247</v>
       </c>
       <c r="B3147" s="1" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3148" s="1" t="s">
-        <v>3144</v>
+        <v>3248</v>
       </c>
       <c r="B3148" s="1" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3149" s="1" t="s">
-        <v>3145</v>
+        <v>3249</v>
       </c>
       <c r="B3149" s="1" t="s">
-        <v>3145</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3150" s="1" t="s">
-        <v>3146</v>
+        <v>3250</v>
       </c>
       <c r="B3150" s="1" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3151" s="1" t="s">
-        <v>3147</v>
+        <v>3251</v>
       </c>
       <c r="B3151" s="1" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3152" s="1" t="s">
-        <v>3148</v>
+        <v>3252</v>
       </c>
       <c r="B3152" s="1" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3153" s="1" t="s">
-        <v>3149</v>
+        <v>3253</v>
       </c>
       <c r="B3153" s="1" t="s">
-        <v>3149</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3154" s="1" t="s">
-        <v>3150</v>
+        <v>3254</v>
       </c>
       <c r="B3154" s="1" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3155" s="1" t="s">
-        <v>3151</v>
+        <v>3255</v>
       </c>
       <c r="B3155" s="1" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3156" s="1" t="s">
-        <v>3152</v>
+        <v>3256</v>
       </c>
       <c r="B3156" s="1" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3157" s="1" t="s">
-        <v>3153</v>
+        <v>3218</v>
       </c>
       <c r="B3157" s="1" t="s">
-        <v>3153</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3158" s="1" t="s">
-        <v>3154</v>
+        <v>3257</v>
       </c>
       <c r="B3158" s="1" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3159" s="1" t="s">
-        <v>3155</v>
+        <v>3258</v>
       </c>
       <c r="B3159" s="1" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3160" s="1" t="s">
-        <v>3156</v>
+        <v>3259</v>
       </c>
       <c r="B3160" s="1" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3161" s="1" t="s">
-        <v>3157</v>
+        <v>3260</v>
       </c>
       <c r="B3161" s="1" t="s">
-        <v>3157</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3162" s="1" t="s">
-        <v>3158</v>
+        <v>3261</v>
       </c>
       <c r="B3162" s="1" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3163" s="1" t="s">
-        <v>3159</v>
+        <v>3262</v>
       </c>
       <c r="B3163" s="1" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3164" s="1" t="s">
-        <v>3160</v>
+        <v>3263</v>
       </c>
       <c r="B3164" s="1" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3165" s="1" t="s">
-        <v>3161</v>
+        <v>3264</v>
       </c>
       <c r="B3165" s="1" t="s">
-        <v>3161</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3166" s="1" t="s">
-        <v>3162</v>
+        <v>3265</v>
       </c>
       <c r="B3166" s="1" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3167" s="1" t="s">
-        <v>3163</v>
+        <v>3266</v>
       </c>
       <c r="B3167" s="1" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3168" s="1" t="s">
-        <v>3164</v>
+        <v>3267</v>
       </c>
       <c r="B3168" s="1" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3169" s="1" t="s">
-        <v>3165</v>
+        <v>3219</v>
       </c>
       <c r="B3169" s="1" t="s">
-        <v>3165</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3170" s="1" t="s">
-        <v>3166</v>
+        <v>3268</v>
       </c>
       <c r="B3170" s="1" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3171" s="1" t="s">
-        <v>3167</v>
+        <v>3269</v>
       </c>
       <c r="B3171" s="1" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3172" s="1" t="s">
-        <v>3168</v>
+        <v>3270</v>
       </c>
       <c r="B3172" s="1" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3173" s="1" t="s">
-        <v>3169</v>
+        <v>3220</v>
       </c>
       <c r="B3173" s="1" t="s">
-        <v>3169</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3174" s="1" t="s">
-        <v>3170</v>
+        <v>3271</v>
       </c>
       <c r="B3174" s="1" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3175" s="1" t="s">
-        <v>3171</v>
+        <v>3272</v>
       </c>
       <c r="B3175" s="1" t="s">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3176" s="1" t="s">
-        <v>3172</v>
+        <v>3273</v>
       </c>
       <c r="B3176" s="1" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3177" s="1" t="s">
-        <v>3173</v>
+        <v>3274</v>
       </c>
       <c r="B3177" s="1" t="s">
-        <v>3173</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3178" s="1" t="s">
-        <v>3174</v>
+        <v>3216</v>
       </c>
       <c r="B3178" s="1" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3179" s="1" t="s">
-        <v>3175</v>
+        <v>3275</v>
       </c>
       <c r="B3179" s="1" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3180" s="1" t="s">
-        <v>3176</v>
+        <v>3276</v>
       </c>
       <c r="B3180" s="1" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3181" s="1" t="s">
-        <v>3177</v>
+        <v>3277</v>
       </c>
       <c r="B3181" s="1" t="s">
-        <v>3177</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3182" s="1" t="s">
-        <v>3178</v>
+        <v>3278</v>
       </c>
       <c r="B3182" s="1" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3183" s="1" t="s">
-        <v>3179</v>
+        <v>3279</v>
       </c>
       <c r="B3183" s="1" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3184" s="1" t="s">
-        <v>3180</v>
+        <v>3280</v>
       </c>
       <c r="B3184" s="1" t="s">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3185" s="1" t="s">
-        <v>3181</v>
+        <v>3281</v>
       </c>
       <c r="B3185" s="1" t="s">
-        <v>3181</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3186" s="1" t="s">
-        <v>3182</v>
+        <v>3282</v>
       </c>
       <c r="B3186" s="1" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3187" s="1" t="s">
-        <v>3183</v>
+        <v>3283</v>
       </c>
       <c r="B3187" s="1" t="s">
-        <v>3183</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3188" s="1" t="s">
-        <v>3184</v>
+        <v>3284</v>
       </c>
       <c r="B3188" s="1" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3189" s="1" t="s">
-        <v>3185</v>
+        <v>3285</v>
       </c>
       <c r="B3189" s="1" t="s">
-        <v>3185</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3190" s="1" t="s">
-        <v>3186</v>
+        <v>3217</v>
       </c>
       <c r="B3190" s="1" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3191" s="1" t="s">
-        <v>3187</v>
+        <v>3286</v>
       </c>
       <c r="B3191" s="1" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3192" s="1" t="s">
-        <v>3188</v>
+        <v>3287</v>
       </c>
       <c r="B3192" s="1" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3193" s="1" t="s">
-        <v>3189</v>
+        <v>3288</v>
       </c>
       <c r="B3193" s="1" t="s">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3194" s="1" t="s">
-        <v>3190</v>
+        <v>3289</v>
       </c>
       <c r="B3194" s="1" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3195" s="1" t="s">
-        <v>3191</v>
+        <v>3290</v>
       </c>
       <c r="B3195" s="1" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3196" s="1" t="s">
-        <v>3192</v>
+        <v>3291</v>
       </c>
       <c r="B3196" s="1" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3197" s="1" t="s">
-        <v>3193</v>
+        <v>3292</v>
       </c>
       <c r="B3197" s="1" t="s">
-        <v>3193</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3198" s="1" t="s">
-        <v>3194</v>
+        <v>3293</v>
       </c>
       <c r="B3198" s="1" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3199" s="1" t="s">
-        <v>3195</v>
+        <v>3294</v>
       </c>
       <c r="B3199" s="1" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3200" s="1" t="s">
-        <v>3196</v>
+        <v>3295</v>
       </c>
       <c r="B3200" s="1" t="s">
-        <v>3196</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="3201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3201" s="1" t="s">
-        <v>3197</v>
+        <v>3297</v>
       </c>
       <c r="B3201" s="1" t="s">
-        <v>3197</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3202" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B3202" s="1" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3203" s="1" t="s">
-        <v>3199</v>
+        <v>3300</v>
       </c>
       <c r="B3203" s="1" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3204" s="1" t="s">
-        <v>3200</v>
+        <v>3302</v>
       </c>
       <c r="B3204" s="1" t="s">
-        <v>3200</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="3205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3205" s="1" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B3205" s="1" t="s">
-        <v>3201</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3206" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B3206" s="1" t="s">
-        <v>3202</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="3207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3207" s="1" t="s">
-        <v>3203</v>
+        <v>3304</v>
       </c>
       <c r="B3207" s="1" t="s">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3208" s="1" t="s">
-        <v>3204</v>
+        <v>3305</v>
       </c>
       <c r="B3208" s="1" t="s">
-        <v>3204</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="3209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3209" s="1" t="s">
-        <v>3205</v>
+        <v>3306</v>
       </c>
       <c r="B3209" s="1" t="s">
-        <v>3205</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3210" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B3210" s="1" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3211" s="1" t="s">
-        <v>3207</v>
+        <v>3308</v>
       </c>
       <c r="B3211" s="1" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3212" s="1" t="s">
-        <v>3209</v>
+        <v>3309</v>
       </c>
       <c r="B3212" s="1" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3213" s="1" t="s">
-        <v>3211</v>
+        <v>3310</v>
       </c>
       <c r="B3213" s="1" t="s">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3214" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B3214" s="1" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3215" s="1" t="s">
-        <v>3215</v>
+        <v>3312</v>
       </c>
       <c r="B3215" s="1" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3216" s="1" t="s">
-        <v>3217</v>
+        <v>3313</v>
       </c>
       <c r="B3216" s="1" t="s">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3217" s="1" t="s">
-        <v>3219</v>
+        <v>3200</v>
       </c>
       <c r="B3217" s="1" t="s">
-        <v>3220</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3218" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B3218" s="1" t="s">
-        <v>3223</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="3219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3219" s="1" t="s">
-        <v>3224</v>
+        <v>3315</v>
       </c>
       <c r="B3219" s="1" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="3220" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3220" s="1" t="s">
-        <v>3226</v>
+        <v>3316</v>
       </c>
       <c r="B3220" s="1" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="3221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3221" s="1" t="s">
-        <v>3228</v>
+        <v>3201</v>
       </c>
       <c r="B3221" s="1" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="3222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3222" s="1" t="s">
-        <v>3230</v>
+        <v>3317</v>
       </c>
       <c r="B3222" s="1" t="s">
-        <v>3231</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="3223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3223" s="1" t="s">
-        <v>3236</v>
+        <v>3318</v>
       </c>
       <c r="B3223" s="1" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="3224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3224" s="1" t="s">
-        <v>3237</v>
+        <v>3319</v>
       </c>
       <c r="B3224" s="1" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="3225" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3225" s="1" t="s">
-        <v>3240</v>
+        <v>3320</v>
       </c>
       <c r="B3225" s="1" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="3226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3226" s="1" t="s">
-        <v>3242</v>
+        <v>3226</v>
       </c>
       <c r="B3226" s="1" t="s">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="3227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3227" s="1" t="s">
-        <v>3245</v>
+        <v>3321</v>
       </c>
       <c r="B3227" s="1" t="s">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="3228" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3228" s="1" t="s">
-        <v>3247</v>
+        <v>3322</v>
       </c>
       <c r="B3228" s="1" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="3229" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3229" s="1" t="s">
-        <v>3249</v>
+        <v>3323</v>
       </c>
       <c r="B3229" s="1" t="s">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="3230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3230" s="1" t="s">
-        <v>3251</v>
+        <v>3324</v>
       </c>
       <c r="B3230" s="1" t="s">
-        <v>3252</v>
-      </c>
-    </row>
-    <row r="3231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3231" s="1" t="s">
-        <v>3266</v>
+        <v>3325</v>
       </c>
       <c r="B3231" s="1" t="s">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="3232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3232" s="1" t="s">
-        <v>3268</v>
+        <v>3326</v>
       </c>
       <c r="B3232" s="1" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="3233" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3233" s="1" t="s">
-        <v>3296</v>
+        <v>3327</v>
       </c>
       <c r="B3233" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3234" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B3234" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3235" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B3235" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3236" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B3236" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3237" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B3237" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3238" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B3238" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3239" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B3239" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3240" s="1" t="s">
         <v>3333</v>
       </c>
-    </row>
-    <row r="3234" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3234" s="1" t="s">
+      <c r="B3240" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3241" s="1" t="s">
         <v>3334</v>
       </c>
-      <c r="B3234" s="1" t="s">
+      <c r="B3241" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3242" s="1" t="s">
         <v>3335</v>
       </c>
-    </row>
-    <row r="3235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3235" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="B3235" s="1" t="s">
+      <c r="B3242" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3243" s="1" t="s">
         <v>3336</v>
       </c>
-    </row>
-    <row r="3236" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3236" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="B3236" s="1" t="s">
+      <c r="B3243" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3244" s="1" t="s">
         <v>3337</v>
       </c>
-    </row>
-    <row r="3237" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3237" s="1" t="s">
+      <c r="B3244" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3245" s="1" t="s">
         <v>3338</v>
       </c>
-      <c r="B3237" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3238" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3238" s="1" t="s">
+      <c r="B3245" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3246" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="B3238" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3239" s="1" t="s">
+      <c r="B3246" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3247" s="1" t="s">
         <v>3340</v>
       </c>
-      <c r="B3239" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3240" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3240" s="1" t="s">
+      <c r="B3247" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3248" s="1" t="s">
         <v>3341</v>
       </c>
-      <c r="B3240" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3241" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3241" s="1" t="s">
+      <c r="B3248" s="1" t="s">
         <v>3342</v>
       </c>
-      <c r="B3241" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3242" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3242" s="1" t="s">
+    </row>
+    <row r="3249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3249" s="1" t="s">
         <v>3343</v>
       </c>
-      <c r="B3242" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3243" s="1" t="s">
+      <c r="B3249" s="1" t="s">
         <v>3344</v>
       </c>
-      <c r="B3243" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3244" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3244" s="1" t="s">
+    </row>
+    <row r="3250" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3250" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B3250" s="1" t="s">
         <v>3345</v>
-      </c>
-      <c r="B3244" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3245" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3245" s="1" t="s">
-        <v>3346</v>
-      </c>
-      <c r="B3245" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3246" s="1" t="s">
-        <v>3347</v>
-      </c>
-      <c r="B3246" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3247" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="B3247" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3248" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3248" s="1" t="s">
-        <v>3348</v>
-      </c>
-      <c r="B3248" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3249" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3249" s="1" t="s">
-        <v>3349</v>
-      </c>
-      <c r="B3249" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3250" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3250" s="1" t="s">
-        <v>3350</v>
-      </c>
-      <c r="B3250" s="1" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="3251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3251" s="1" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="B3251" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3252" s="1" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="B3252" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3253" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3253" s="1" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
       <c r="B3253" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3254" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3254" s="1" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="B3254" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3255" s="1" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="B3255" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3256" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3256" s="1" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="B3256" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3257" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3257" s="1" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="B3257" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3258" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3258" s="1" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
       <c r="B3258" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3259" s="1" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
       <c r="B3259" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3260" s="1" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="B3260" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3261" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3261" s="1" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="B3261" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3262" s="1" t="s">
-        <v>3323</v>
+        <v>3212</v>
       </c>
       <c r="B3262" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3263" s="1" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="B3263" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3264" s="1" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
       <c r="B3264" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3265" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3265" s="1" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
       <c r="B3265" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3266" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3266" s="1" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="B3266" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3267" s="1" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
       <c r="B3267" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3268" s="1" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="B3268" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3269" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3269" s="1" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="B3269" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3270" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3270" s="1" t="s">
-        <v>3369</v>
+        <v>3365</v>
       </c>
       <c r="B3270" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3271" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B3271" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3272" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B3272" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3273" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B3273" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3274" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B3274" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3275" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="B3271" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3272" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3272" s="1" t="s">
+      <c r="B3275" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3276" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="B3272" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3273" s="1" t="s">
+      <c r="B3276" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3277" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B3277" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3278" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="B3273" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3274" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3274" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="B3274" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3275" s="1" t="s">
+      <c r="B3278" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3279" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="B3275" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3276" s="1" t="s">
+      <c r="B3279" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3280" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="B3276" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3277" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3277" s="1" t="s">
+      <c r="B3280" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3281" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="B3277" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3278" s="1" t="s">
-        <v>3325</v>
-      </c>
-      <c r="B3278" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3279" s="1" t="s">
+      <c r="B3281" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3282" s="1" t="s">
         <v>3376</v>
       </c>
-      <c r="B3279" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3280" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3280" s="1" t="s">
+      <c r="B3282" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3283" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="B3280" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3281" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3281" s="1" t="s">
+      <c r="B3283" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3284" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="B3281" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3282" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3282" s="1" t="s">
+      <c r="B3284" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3285" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="B3282" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3283" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="B3283" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3284" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3284" s="1" t="s">
+      <c r="B3285" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3286" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="B3284" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3285" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3285" s="1" t="s">
+      <c r="B3286" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3287" s="1" t="s">
         <v>3381</v>
       </c>
-      <c r="B3285" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3286" s="1" t="s">
+      <c r="B3287" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3288" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="B3286" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3287" s="1" t="s">
+      <c r="B3288" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3289" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B3289" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3290" s="1" t="s">
         <v>3383</v>
       </c>
-      <c r="B3287" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3288" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3288" s="1" t="s">
+      <c r="B3290" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3291" s="1" t="s">
         <v>3384</v>
       </c>
-      <c r="B3288" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3289" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3289" s="1" t="s">
+      <c r="B3291" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3292" s="1" t="s">
         <v>3385</v>
       </c>
-      <c r="B3289" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3290" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3290" s="1" t="s">
+      <c r="B3292" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3293" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B3293" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3294" s="1" t="s">
         <v>3386</v>
       </c>
-      <c r="B3290" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3291" s="1" t="s">
+      <c r="B3294" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3295" s="1" t="s">
         <v>3387</v>
       </c>
-      <c r="B3291" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3292" s="1" t="s">
+      <c r="B3295" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3296" s="1" t="s">
         <v>3388</v>
       </c>
-      <c r="B3292" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3293" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3293" s="1" t="s">
+      <c r="B3296" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3297" s="1" t="s">
         <v>3389</v>
       </c>
-      <c r="B3293" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3294" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3294" s="1" t="s">
+      <c r="B3297" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3298" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B3298" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3299" s="1" t="s">
         <v>3390</v>
       </c>
-      <c r="B3294" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3295" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="B3295" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3296" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3296" s="1" t="s">
+      <c r="B3299" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3300" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="B3296" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3297" s="1" t="s">
+      <c r="B3300" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3301" s="1" t="s">
         <v>3392</v>
       </c>
-      <c r="B3297" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3298" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3298" s="1" t="s">
+      <c r="B3301" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3302" s="1" t="s">
         <v>3393</v>
       </c>
-      <c r="B3298" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3299" s="1" t="s">
+      <c r="B3302" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3303" s="1" t="s">
         <v>3394</v>
       </c>
-      <c r="B3299" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3300" s="1" t="s">
+      <c r="B3303" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3304" s="1" t="s">
         <v>3395</v>
       </c>
-      <c r="B3300" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3301" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3301" s="1" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B3301" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3302" s="1" t="s">
-        <v>3397</v>
-      </c>
-      <c r="B3302" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3303" s="1" t="s">
-        <v>3398</v>
-      </c>
-      <c r="B3303" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3304" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3304" s="1" t="s">
-        <v>3399</v>
-      </c>
       <c r="B3304" s="1" t="s">
-        <v>3337</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="3305" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3305" s="1" t="s">
-        <v>3400</v>
+        <v>3396</v>
       </c>
       <c r="B3305" s="1" t="s">
-        <v>3401</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3306" s="1" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B3306" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3307" s="1" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="3308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3398</v>
+      </c>
+      <c r="B3307" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3308" s="1" t="s">
-        <v>3405</v>
+        <v>3399</v>
       </c>
       <c r="B3308" s="1" t="s">
-        <v>3406</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="3309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3309" s="1" t="s">
-        <v>3407</v>
+        <v>3400</v>
       </c>
       <c r="B3309" s="1" t="s">
-        <v>3401</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3310" s="1" t="s">
-        <v>3304</v>
+        <v>3225</v>
       </c>
       <c r="B3310" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3311" s="1" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="3312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3401</v>
+      </c>
+      <c r="B3311" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3312" s="1" t="s">
-        <v>3409</v>
+        <v>3402</v>
       </c>
       <c r="B3312" s="1" t="s">
-        <v>3406</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="3313" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3313" s="1" t="s">
-        <v>3410</v>
+        <v>3403</v>
       </c>
       <c r="B3313" s="1" t="s">
-        <v>3401</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3314" s="1" t="s">
-        <v>3411</v>
+        <v>3404</v>
       </c>
       <c r="B3314" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3315" s="1" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="3316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3405</v>
+      </c>
+      <c r="B3315" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3316" s="1" t="s">
-        <v>3413</v>
+        <v>3406</v>
       </c>
       <c r="B3316" s="1" t="s">
-        <v>3406</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="3317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3317" s="1" t="s">
-        <v>3414</v>
+        <v>3407</v>
       </c>
       <c r="B3317" s="1" t="s">
-        <v>3401</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3318" s="1" t="s">
-        <v>3415</v>
+        <v>3408</v>
       </c>
       <c r="B3318" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3319" s="1" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="3320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3409</v>
+      </c>
+      <c r="B3319" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3320" s="1" t="s">
-        <v>3417</v>
+        <v>3410</v>
       </c>
       <c r="B3320" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3321" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3321" s="1" t="s">
-        <v>3418</v>
+        <v>3411</v>
       </c>
       <c r="B3321" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3322" s="1" t="s">
-        <v>3305</v>
+        <v>3412</v>
       </c>
       <c r="B3322" s="1" t="s">
-        <v>3403</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3323" s="1" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="3324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3413</v>
+      </c>
+      <c r="B3323" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3324" s="1" t="s">
-        <v>3420</v>
+        <v>3414</v>
       </c>
       <c r="B3324" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3325" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3325" s="1" t="s">
-        <v>3421</v>
+        <v>3208</v>
       </c>
       <c r="B3325" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3326" s="1" t="s">
-        <v>3306</v>
+        <v>3415</v>
       </c>
       <c r="B3326" s="1" t="s">
-        <v>3403</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3327" s="1" t="s">
-        <v>3422</v>
+        <v>3416</v>
       </c>
       <c r="B3327" s="1" t="s">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="3328" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3328" s="1" t="s">
-        <v>3423</v>
+        <v>3417</v>
       </c>
       <c r="B3328" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3329" s="1" t="s">
-        <v>3424</v>
+        <v>3418</v>
       </c>
       <c r="B3329" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3330" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3330" s="1" t="s">
-        <v>3425</v>
+        <v>3419</v>
       </c>
       <c r="B3330" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3331" s="1" t="s">
-        <v>3331</v>
+        <v>3420</v>
       </c>
       <c r="B3331" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3332" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3332" s="1" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="B3332" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3333" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3333" s="1" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="B3333" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3334" s="1" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B3334" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3335" s="1" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="B3335" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3336" s="1" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="B3336" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3337" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3337" s="1" t="s">
-        <v>3431</v>
+        <v>3209</v>
       </c>
       <c r="B3337" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3338" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3338" s="1" t="s">
-        <v>3432</v>
+        <v>3426</v>
       </c>
       <c r="B3338" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3339" s="1" t="s">
-        <v>3433</v>
+        <v>3427</v>
       </c>
       <c r="B3339" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3340" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3340" s="1" t="s">
-        <v>3434</v>
+        <v>3428</v>
       </c>
       <c r="B3340" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3341" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3341" s="1" t="s">
-        <v>3435</v>
+        <v>3210</v>
       </c>
       <c r="B3341" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3342" s="1" t="s">
-        <v>3436</v>
+        <v>3429</v>
       </c>
       <c r="B3342" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3343" s="1" t="s">
-        <v>3332</v>
+        <v>3430</v>
       </c>
       <c r="B3343" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3344" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B3344" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3345" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B3345" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3346" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B3346" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3347" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B3347" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3348" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B3348" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3349" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B3349" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3350" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B3350" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3351" s="1" t="s">
         <v>3437</v>
       </c>
-      <c r="B3344" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3345" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3345" s="1" t="s">
+      <c r="B3351" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3352" s="1" t="s">
         <v>3438</v>
       </c>
-      <c r="B3345" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3346" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3346" s="1" t="s">
+      <c r="B3352" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3353" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="B3346" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3347" s="1" t="s">
-        <v>3440</v>
-      </c>
-      <c r="B3347" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3348" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B3348" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3349" s="1" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B3349" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3350" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3350" s="1" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B3350" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3351" s="1" t="s">
-        <v>3444</v>
-      </c>
-      <c r="B3351" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3352" s="1" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B3352" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3353" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3353" s="1" t="s">
-        <v>3446</v>
-      </c>
       <c r="B3353" s="1" t="s">
-        <v>3447</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3354" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3354" s="1" t="s">
-        <v>3448</v>
+        <v>3440</v>
       </c>
       <c r="B3354" s="1" t="s">
-        <v>3449</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="3355" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3355" s="1" t="s">
-        <v>3316</v>
+        <v>3441</v>
       </c>
       <c r="B3355" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3356" s="1" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="B3356" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3357" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3357" s="1" t="s">
-        <v>3453</v>
+        <v>3443</v>
       </c>
       <c r="B3357" s="1" t="s">
-        <v>3447</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3358" s="1" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
       <c r="B3358" s="1" t="s">
-        <v>3449</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="3359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3359" s="1" t="s">
-        <v>3455</v>
+        <v>3445</v>
       </c>
       <c r="B3359" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3360" s="1" t="s">
-        <v>3456</v>
+        <v>3446</v>
       </c>
       <c r="B3360" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3361" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3361" s="1" t="s">
-        <v>3457</v>
+        <v>3214</v>
       </c>
       <c r="B3361" s="1" t="s">
-        <v>3447</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3362" s="1" t="s">
-        <v>3458</v>
+        <v>3447</v>
       </c>
       <c r="B3362" s="1" t="s">
-        <v>3449</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="3363" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3363" s="1" t="s">
-        <v>3459</v>
+        <v>3448</v>
       </c>
       <c r="B3363" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3364" s="1" t="s">
-        <v>3460</v>
+        <v>3449</v>
       </c>
       <c r="B3364" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3365" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3365" s="1" t="s">
-        <v>3461</v>
+        <v>3215</v>
       </c>
       <c r="B3365" s="1" t="s">
-        <v>3447</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="3366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3366" s="1" t="s">
-        <v>3462</v>
+        <v>3450</v>
       </c>
       <c r="B3366" s="1" t="s">
-        <v>3449</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="3367" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3367" s="1" t="s">
-        <v>3317</v>
+        <v>3451</v>
       </c>
       <c r="B3367" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3368" s="1" t="s">
-        <v>3463</v>
+        <v>3452</v>
       </c>
       <c r="B3368" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3369" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3369" s="1" t="s">
-        <v>3464</v>
+        <v>3453</v>
       </c>
       <c r="B3369" s="1" t="s">
-        <v>3447</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3370" s="1" t="s">
-        <v>3465</v>
+        <v>3202</v>
       </c>
       <c r="B3370" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3371" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3371" s="1" t="s">
-        <v>3466</v>
+        <v>3455</v>
       </c>
       <c r="B3371" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3372" s="1" t="s">
-        <v>3467</v>
+        <v>3456</v>
       </c>
       <c r="B3372" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3373" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3373" s="1" t="s">
-        <v>3468</v>
+        <v>3457</v>
       </c>
       <c r="B3373" s="1" t="s">
-        <v>3447</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3374" s="1" t="s">
-        <v>3469</v>
+        <v>3458</v>
       </c>
       <c r="B3374" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3375" s="1" t="s">
-        <v>3470</v>
+        <v>3459</v>
       </c>
       <c r="B3375" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3376" s="1" t="s">
-        <v>3471</v>
+        <v>3460</v>
       </c>
       <c r="B3376" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3377" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3377" s="1" t="s">
-        <v>3472</v>
+        <v>3461</v>
       </c>
       <c r="B3377" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3378" s="1" t="s">
-        <v>3473</v>
+        <v>3462</v>
       </c>
       <c r="B3378" s="1" t="s">
-        <v>3335</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3379" s="1" t="s">
-        <v>3474</v>
+        <v>3463</v>
       </c>
       <c r="B3379" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3380" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3380" s="1" t="s">
-        <v>3475</v>
+        <v>3464</v>
       </c>
       <c r="B3380" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3381" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3381" s="1" t="s">
-        <v>3476</v>
+        <v>3465</v>
       </c>
       <c r="B3381" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3382" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3382" s="1" t="s">
-        <v>3301</v>
+        <v>3203</v>
       </c>
       <c r="B3382" s="1" t="s">
-        <v>3335</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3383" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3383" s="1" t="s">
-        <v>3477</v>
+        <v>3466</v>
       </c>
       <c r="B3383" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3384" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3384" s="1" t="s">
-        <v>3478</v>
+        <v>3467</v>
       </c>
       <c r="B3384" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3385" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3385" s="1" t="s">
-        <v>3479</v>
+        <v>3468</v>
       </c>
       <c r="B3385" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3386" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3386" s="1" t="s">
-        <v>3480</v>
+        <v>3469</v>
       </c>
       <c r="B3386" s="1" t="s">
-        <v>3335</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3387" s="1" t="s">
-        <v>3481</v>
+        <v>3470</v>
       </c>
       <c r="B3387" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3388" s="1" t="s">
-        <v>3482</v>
+        <v>3471</v>
       </c>
       <c r="B3388" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3389" s="1" t="s">
-        <v>3483</v>
+        <v>3472</v>
       </c>
       <c r="B3389" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3390" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3390" s="1" t="s">
-        <v>3484</v>
+        <v>3473</v>
       </c>
       <c r="B3390" s="1" t="s">
-        <v>3335</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3391" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B3391" s="1" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3392" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B3392" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3393" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B3393" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3394" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B3394" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3395" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B3395" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3396" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B3396" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3397" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B3397" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3398" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B3398" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3399" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B3399" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3400" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B3400" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3401" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B3401" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3402" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B3402" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3403" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="B3391" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3392" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3392" s="1" t="s">
+      <c r="B3403" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3404" s="1" t="s">
         <v>3486</v>
       </c>
-      <c r="B3392" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3393" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3393" s="1" t="s">
+      <c r="B3404" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3405" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="B3393" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3394" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3394" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="B3394" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3395" s="1" t="s">
+      <c r="B3405" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3406" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="B3395" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3396" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3396" s="1" t="s">
+      <c r="B3406" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3407" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="B3396" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3397" s="1" t="s">
+      <c r="B3407" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3408" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="B3397" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3398" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="B3398" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3399" s="1" t="s">
+      <c r="B3408" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3409" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B3409" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3410" s="1" t="s">
         <v>3491</v>
       </c>
-      <c r="B3399" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3400" s="1" t="s">
+      <c r="B3410" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3411" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="B3400" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3401" s="1" t="s">
+      <c r="B3411" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3412" s="1" t="s">
         <v>3493</v>
       </c>
-      <c r="B3401" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3402" s="1" t="s">
+      <c r="B3412" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3413" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B3413" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3414" s="1" t="s">
         <v>3494</v>
       </c>
-      <c r="B3402" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3403" s="1" t="s">
-        <v>3329</v>
-      </c>
-      <c r="B3403" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3404" s="1" t="s">
+      <c r="B3414" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3415" s="1" t="s">
         <v>3495</v>
       </c>
-      <c r="B3404" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3405" s="1" t="s">
+      <c r="B3415" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3416" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="B3405" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3406" s="1" t="s">
+      <c r="B3416" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3417" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="B3406" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3407" s="1" t="s">
+      <c r="B3417" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3418" s="1" t="s">
         <v>3498</v>
       </c>
-      <c r="B3407" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3408" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3408" s="1" t="s">
-        <v>3499</v>
-      </c>
-      <c r="B3408" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3409" s="1" t="s">
-        <v>3500</v>
-      </c>
-      <c r="B3409" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3410" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3410" s="1" t="s">
-        <v>3501</v>
-      </c>
-      <c r="B3410" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3411" s="1" t="s">
-        <v>3502</v>
-      </c>
-      <c r="B3411" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3412" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3412" s="1" t="s">
-        <v>3503</v>
-      </c>
-      <c r="B3412" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3413" s="1" t="s">
-        <v>3504</v>
-      </c>
-      <c r="B3413" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3414" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3414" s="1" t="s">
-        <v>3505</v>
-      </c>
-      <c r="B3414" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3415" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3415" s="1" t="s">
-        <v>3330</v>
-      </c>
-      <c r="B3415" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3416" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3416" s="1" t="s">
-        <v>3506</v>
-      </c>
-      <c r="B3416" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3417" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3417" s="1" t="s">
-        <v>3507</v>
-      </c>
-      <c r="B3417" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3418" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3418" s="1" t="s">
-        <v>3508</v>
-      </c>
       <c r="B3418" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3419" s="1" t="s">
-        <v>3509</v>
+        <v>3499</v>
       </c>
       <c r="B3419" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3420" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3420" s="1" t="s">
-        <v>3510</v>
+        <v>3500</v>
       </c>
       <c r="B3420" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3421" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3421" s="1" t="s">
-        <v>3511</v>
+        <v>3195</v>
       </c>
       <c r="B3421" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3422" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3422" s="1" t="s">
-        <v>3512</v>
+        <v>3501</v>
       </c>
       <c r="B3422" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3423" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B3423" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3424" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B3424" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3425" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B3425" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3426" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B3426" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3427" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B3427" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3428" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B3428" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3429" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B3429" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3430" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B3430" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3431" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B3431" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3432" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B3432" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3433" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B3433" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3434" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B3434" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3435" s="1" t="s">
         <v>3513</v>
       </c>
-      <c r="B3423" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3424" s="1" t="s">
+      <c r="B3435" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3436" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="B3424" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3425" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3425" s="1" t="s">
+      <c r="B3436" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3437" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B3437" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3438" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="B3425" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3426" s="1" t="s">
+      <c r="B3438" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3439" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="B3426" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3427" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3427" s="1" t="s">
+      <c r="B3439" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3440" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="B3427" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3428" s="1" t="s">
+      <c r="B3440" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3441" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="B3428" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3429" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3429" s="1" t="s">
+      <c r="B3441" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3442" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B3442" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3443" s="1" t="s">
         <v>3519</v>
       </c>
-      <c r="B3429" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3430" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="B3430" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3431" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3431" s="1" t="s">
+      <c r="B3443" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3444" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="B3431" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3432" s="1" t="s">
+      <c r="B3444" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3445" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="B3432" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3433" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3433" s="1" t="s">
+      <c r="B3445" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3446" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="B3433" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3434" s="1" t="s">
+      <c r="B3446" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3447" s="1" t="s">
         <v>3523</v>
       </c>
-      <c r="B3434" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3435" s="1" t="s">
+      <c r="B3447" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3448" s="1" t="s">
         <v>3524</v>
       </c>
-      <c r="B3435" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3436" s="1" t="s">
+      <c r="B3448" s="1" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3449" s="1" t="s">
         <v>3525</v>
       </c>
-      <c r="B3436" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3437" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3437" s="1" t="s">
+      <c r="B3449" s="1" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3450" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="B3437" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3438" s="1" t="s">
-        <v>3527</v>
-      </c>
-      <c r="B3438" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3439" s="1" t="s">
-        <v>3528</v>
-      </c>
-      <c r="B3439" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3440" s="1" t="s">
-        <v>3529</v>
-      </c>
-      <c r="B3440" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3441" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="B3441" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3442" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B3442" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3443" s="1" t="s">
-        <v>3531</v>
-      </c>
-      <c r="B3443" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3444" s="1" t="s">
-        <v>3532</v>
-      </c>
-      <c r="B3444" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3445" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3445" s="1" t="s">
-        <v>3533</v>
-      </c>
-      <c r="B3445" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3446" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="B3446" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3447" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3447" s="1" t="s">
-        <v>3534</v>
-      </c>
-      <c r="B3447" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3448" s="1" t="s">
-        <v>3535</v>
-      </c>
-      <c r="B3448" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3449" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3449" s="1" t="s">
-        <v>3536</v>
-      </c>
-      <c r="B3449" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3450" s="1" t="s">
-        <v>3537</v>
-      </c>
       <c r="B3450" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3451" s="1" t="s">
-        <v>3538</v>
+        <v>3527</v>
       </c>
       <c r="B3451" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3452" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3452" s="1" t="s">
-        <v>3539</v>
+        <v>3528</v>
       </c>
       <c r="B3452" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3453" s="1" t="s">
-        <v>3540</v>
+        <v>3529</v>
       </c>
       <c r="B3453" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3454" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3454" s="1" t="s">
-        <v>3318</v>
+        <v>3207</v>
       </c>
       <c r="B3454" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3455" s="1" t="s">
-        <v>3541</v>
+        <v>3530</v>
       </c>
       <c r="B3455" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3456" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3456" s="1" t="s">
-        <v>3542</v>
+        <v>3531</v>
       </c>
       <c r="B3456" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3457" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3457" s="1" t="s">
-        <v>3543</v>
+        <v>3532</v>
       </c>
       <c r="B3457" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3458" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3458" s="1" t="s">
-        <v>3544</v>
+        <v>3533</v>
       </c>
       <c r="B3458" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3459" s="1" t="s">
-        <v>3545</v>
+        <v>3534</v>
       </c>
       <c r="B3459" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3460" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3460" s="1" t="s">
-        <v>3546</v>
+        <v>3535</v>
       </c>
       <c r="B3460" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3461" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3461" s="1" t="s">
-        <v>3547</v>
+        <v>3536</v>
       </c>
       <c r="B3461" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3462" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3462" s="1" t="s">
-        <v>3548</v>
+        <v>3537</v>
       </c>
       <c r="B3462" s="1" t="s">
-        <v>3335</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="3463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3463" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B3463" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3464" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B3464" s="1" t="s">
         <v>3549</v>
-      </c>
-      <c r="B3463" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3464" s="1" t="s">
-        <v>3550</v>
-      </c>
-      <c r="B3464" s="1" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="3465" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3465" s="1" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
       <c r="B3465" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3466" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3466" s="1" t="s">
-        <v>3319</v>
+        <v>3547</v>
       </c>
       <c r="B3466" s="1" t="s">
-        <v>3335</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="3467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3467" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B3467" s="1" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3468" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B3468" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="B3467" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3468" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3468" s="1" t="s">
-        <v>3553</v>
-      </c>
-      <c r="B3468" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3469" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3469" s="1" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="B3469" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3470" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3470" s="1" t="s">
-        <v>3320</v>
+        <v>3555</v>
       </c>
       <c r="B3470" s="1" t="s">
-        <v>3335</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3471" s="1" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="B3471" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3472" s="1" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="B3472" s="1" t="s">
-        <v>3337</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="3473" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3473" s="1" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="B3473" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3474" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3474" s="1" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="B3474" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3475" s="1" t="s">
-        <v>3307</v>
+        <v>3562</v>
       </c>
       <c r="B3475" s="1" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3476" s="1" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="B3476" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3477" s="1" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="B3477" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3478" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3478" s="1" t="s">
-        <v>3562</v>
+        <v>3671</v>
       </c>
       <c r="B3478" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3479" s="1" t="s">
-        <v>3563</v>
+        <v>3672</v>
       </c>
       <c r="B3479" s="1" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3480" s="1" t="s">
-        <v>3564</v>
+        <v>3673</v>
       </c>
       <c r="B3480" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3481" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B3481" s="1" t="s">
         <v>3565</v>
-      </c>
-      <c r="B3481" s="1" t="s">
-        <v>3401</v>
       </c>
     </row>
     <row r="3482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -40240,7 +39504,7 @@
         <v>3566</v>
       </c>
       <c r="B3482" s="1" t="s">
-        <v>3403</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="3483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -40248,1251 +39512,319 @@
         <v>3567</v>
       </c>
       <c r="B3483" s="1" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3484" s="1" t="s">
-        <v>3568</v>
+        <v>3572</v>
       </c>
       <c r="B3484" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3485" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3485" s="1" t="s">
-        <v>3569</v>
+        <v>3576</v>
       </c>
       <c r="B3485" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3486" s="1" t="s">
-        <v>3570</v>
+        <v>3577</v>
       </c>
       <c r="B3486" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3487" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3487" s="1" t="s">
-        <v>3308</v>
+        <v>3580</v>
       </c>
       <c r="B3487" s="1" t="s">
-        <v>3559</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="3488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3488" s="1" t="s">
-        <v>3571</v>
+        <v>3585</v>
       </c>
       <c r="B3488" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3489" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3489" s="1" t="s">
-        <v>3572</v>
+        <v>3587</v>
       </c>
       <c r="B3489" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A3490" s="1" t="s">
-        <v>3573</v>
+        <v>3735</v>
       </c>
       <c r="B3490" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3676</v>
+      </c>
+      <c r="C3490" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D3490" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E3490" s="1"/>
+      <c r="F3490" s="3"/>
+    </row>
+    <row r="3491" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3491" s="1" t="s">
-        <v>3574</v>
+        <v>3736</v>
       </c>
       <c r="B3491" s="1" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3679</v>
+      </c>
+      <c r="C3491" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D3491" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E3491" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F3491" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3492" s="1" t="s">
-        <v>3575</v>
+        <v>3737</v>
       </c>
       <c r="B3492" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3493" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3684</v>
+      </c>
+      <c r="C3492" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D3492" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E3492" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F3492" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G3492" s="1" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A3493" s="1" t="s">
-        <v>3576</v>
+        <v>3738</v>
       </c>
       <c r="B3493" s="1" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3494" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3690</v>
+      </c>
+      <c r="C3493" s="1"/>
+      <c r="D3493" s="1"/>
+      <c r="E3493" s="1"/>
+      <c r="F3493" s="3"/>
+    </row>
+    <row r="3494" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3494" s="1" t="s">
-        <v>3577</v>
+        <v>3739</v>
       </c>
       <c r="B3494" s="1" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3691</v>
+      </c>
+      <c r="C3494" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D3494" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E3494" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F3494" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="G3494" s="1" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3495" s="1" t="s">
-        <v>3578</v>
+        <v>3740</v>
       </c>
       <c r="B3495" s="1" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3697</v>
+      </c>
+      <c r="C3495" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D3495" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="E3495" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F3495" s="1" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3496" s="1" t="s">
-        <v>3579</v>
+        <v>3741</v>
       </c>
       <c r="B3496" s="1" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3497" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3702</v>
+      </c>
+      <c r="C3496" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D3496" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E3496" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F3496" s="1" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3497" s="1" t="s">
-        <v>3580</v>
+        <v>3742</v>
       </c>
       <c r="B3497" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3498" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3707</v>
+      </c>
+      <c r="C3497" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D3497" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E3497" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="F3497" s="1" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3498" s="1" t="s">
-        <v>3581</v>
+        <v>3743</v>
       </c>
       <c r="B3498" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3712</v>
+      </c>
+      <c r="C3498" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D3498" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="E3498" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="F3498" s="1"/>
+    </row>
+    <row r="3499" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3499" s="1" t="s">
-        <v>3582</v>
+        <v>3744</v>
       </c>
       <c r="B3499" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3716</v>
+      </c>
+      <c r="C3499" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D3499" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E3499" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F3499" s="1" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A3500" s="1" t="s">
-        <v>3583</v>
+        <v>3745</v>
       </c>
       <c r="B3500" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3501" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3721</v>
+      </c>
+      <c r="C3500" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D3500" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E3500" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="F3500" s="1"/>
+      <c r="G3500" s="1"/>
+    </row>
+    <row r="3501" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3501" s="1" t="s">
-        <v>3584</v>
+        <v>3746</v>
       </c>
       <c r="B3501" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3725</v>
+      </c>
+      <c r="C3501" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D3501" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E3501" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="F3501" s="1"/>
+      <c r="G3501" s="1"/>
+    </row>
+    <row r="3502" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3502" s="1" t="s">
-        <v>3326</v>
+        <v>3747</v>
       </c>
       <c r="B3502" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3503" s="1" t="s">
-        <v>3585</v>
-      </c>
-      <c r="B3503" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3504" s="1" t="s">
-        <v>3586</v>
-      </c>
-      <c r="B3504" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3505" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3505" s="1" t="s">
-        <v>3587</v>
-      </c>
-      <c r="B3505" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3506" s="1" t="s">
-        <v>3588</v>
-      </c>
-      <c r="B3506" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3507" s="1" t="s">
-        <v>3589</v>
-      </c>
-      <c r="B3507" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3508" s="1" t="s">
-        <v>3590</v>
-      </c>
-      <c r="B3508" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3509" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3509" s="1" t="s">
-        <v>3591</v>
-      </c>
-      <c r="B3509" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3510" s="1" t="s">
-        <v>3592</v>
-      </c>
-      <c r="B3510" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3511" s="1" t="s">
-        <v>3593</v>
-      </c>
-      <c r="B3511" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3512" s="1" t="s">
-        <v>3594</v>
-      </c>
-      <c r="B3512" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3513" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3513" s="1" t="s">
-        <v>3595</v>
-      </c>
-      <c r="B3513" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3514" s="1" t="s">
-        <v>3327</v>
-      </c>
-      <c r="B3514" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3515" s="1" t="s">
-        <v>3596</v>
-      </c>
-      <c r="B3515" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3516" s="1" t="s">
-        <v>3597</v>
-      </c>
-      <c r="B3516" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3517" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3517" s="1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="B3517" s="1" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3518" s="1" t="s">
-        <v>3328</v>
-      </c>
-      <c r="B3518" s="1" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3519" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3519" s="1" t="s">
-        <v>3599</v>
-      </c>
-      <c r="B3519" s="1" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3520" s="1" t="s">
-        <v>3600</v>
-      </c>
-      <c r="B3520" s="1" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3521" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3521" s="1" t="s">
-        <v>3601</v>
-      </c>
-      <c r="B3521" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3522" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3522" s="1" t="s">
-        <v>3602</v>
-      </c>
-      <c r="B3522" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3523" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3523" s="1" t="s">
-        <v>3603</v>
-      </c>
-      <c r="B3523" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3524" s="1" t="s">
-        <v>3604</v>
-      </c>
-      <c r="B3524" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3525" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3525" s="1" t="s">
-        <v>3605</v>
-      </c>
-      <c r="B3525" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3526" s="1" t="s">
-        <v>3300</v>
-      </c>
-      <c r="B3526" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3527" s="1" t="s">
-        <v>3606</v>
-      </c>
-      <c r="B3527" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3528" s="1" t="s">
-        <v>3607</v>
-      </c>
-      <c r="B3528" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3529" s="1" t="s">
-        <v>3608</v>
-      </c>
-      <c r="B3529" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3530" s="1" t="s">
-        <v>3609</v>
-      </c>
-      <c r="B3530" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3531" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3531" s="1" t="s">
-        <v>3610</v>
-      </c>
-      <c r="B3531" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3532" s="1" t="s">
-        <v>3611</v>
-      </c>
-      <c r="B3532" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3533" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3533" s="1" t="s">
-        <v>3612</v>
-      </c>
-      <c r="B3533" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3534" s="1" t="s">
-        <v>3613</v>
-      </c>
-      <c r="B3534" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3535" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3535" s="1" t="s">
-        <v>3614</v>
-      </c>
-      <c r="B3535" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3536" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3536" s="1" t="s">
-        <v>3615</v>
-      </c>
-      <c r="B3536" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3537" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3537" s="1" t="s">
-        <v>3616</v>
-      </c>
-      <c r="B3537" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3538" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3538" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="B3538" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3539" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3539" s="1" t="s">
-        <v>3617</v>
-      </c>
-      <c r="B3539" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3540" s="1" t="s">
-        <v>3618</v>
-      </c>
-      <c r="B3540" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3541" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3541" s="1" t="s">
-        <v>3619</v>
-      </c>
-      <c r="B3541" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3542" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3542" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="B3542" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3543" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3543" s="1" t="s">
-        <v>3620</v>
-      </c>
-      <c r="B3543" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3544" s="1" t="s">
-        <v>3621</v>
-      </c>
-      <c r="B3544" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3545" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3545" s="1" t="s">
-        <v>3622</v>
-      </c>
-      <c r="B3545" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3546" s="1" t="s">
-        <v>3623</v>
-      </c>
-      <c r="B3546" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3547" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3547" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="B3547" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3548" s="1" t="s">
-        <v>3624</v>
-      </c>
-      <c r="B3548" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3549" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3549" s="1" t="s">
-        <v>3625</v>
-      </c>
-      <c r="B3549" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3550" s="1" t="s">
-        <v>3626</v>
-      </c>
-      <c r="B3550" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3551" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3551" s="1" t="s">
-        <v>3627</v>
-      </c>
-      <c r="B3551" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3552" s="1" t="s">
-        <v>3628</v>
-      </c>
-      <c r="B3552" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3553" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3553" s="1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="B3553" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3554" s="1" t="s">
-        <v>3630</v>
-      </c>
-      <c r="B3554" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3555" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3555" s="1" t="s">
-        <v>3631</v>
-      </c>
-      <c r="B3555" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3556" s="1" t="s">
-        <v>3632</v>
-      </c>
-      <c r="B3556" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3557" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3557" s="1" t="s">
-        <v>3633</v>
-      </c>
-      <c r="B3557" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3558" s="1" t="s">
-        <v>3634</v>
-      </c>
-      <c r="B3558" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3559" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3559" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B3559" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3560" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3560" s="1" t="s">
-        <v>3635</v>
-      </c>
-      <c r="B3560" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3561" s="1" t="s">
-        <v>3636</v>
-      </c>
-      <c r="B3561" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3562" s="1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="B3562" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3563" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3563" s="1" t="s">
-        <v>3638</v>
-      </c>
-      <c r="B3563" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3564" s="1" t="s">
-        <v>3639</v>
-      </c>
-      <c r="B3564" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3565" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3565" s="1" t="s">
-        <v>3640</v>
-      </c>
-      <c r="B3565" s="1" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3566" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3566" s="1" t="s">
-        <v>3641</v>
-      </c>
-      <c r="B3566" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3567" s="1" t="s">
-        <v>3642</v>
-      </c>
-      <c r="B3567" s="1" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3568" s="1" t="s">
-        <v>3643</v>
-      </c>
-      <c r="B3568" s="1" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3569" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3569" s="1" t="s">
-        <v>3650</v>
-      </c>
-      <c r="B3569" s="1" t="s">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="3570" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3570" s="1" t="s">
-        <v>3651</v>
-      </c>
-      <c r="B3570" s="1" t="s">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="3571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3571" s="1" t="s">
-        <v>3652</v>
-      </c>
-      <c r="B3571" s="1" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="3572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3572" s="1" t="s">
-        <v>3653</v>
-      </c>
-      <c r="B3572" s="1" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="3573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3573" s="1" t="s">
-        <v>3656</v>
-      </c>
-      <c r="B3573" s="1" t="s">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="3574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3574" s="1" t="s">
-        <v>3661</v>
-      </c>
-      <c r="B3574" s="1" t="s">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="3575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3575" s="1" t="s">
-        <v>3660</v>
-      </c>
-      <c r="B3575" s="1" t="s">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="3576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3576" s="1" t="s">
-        <v>3658</v>
-      </c>
-      <c r="B3576" s="1" t="s">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="3577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3577" s="1" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B3577" s="1" t="s">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="3578" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3578" s="1" t="s">
-        <v>3664</v>
-      </c>
-      <c r="B3578" s="1" t="s">
-        <v>3665</v>
-      </c>
-    </row>
-    <row r="3579" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3579" s="1" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B3579" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3580" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3580" s="1" t="s">
-        <v>3667</v>
-      </c>
-      <c r="B3580" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3581" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3581" s="1" t="s">
-        <v>3668</v>
-      </c>
-      <c r="B3581" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3582" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3582" s="1" t="s">
-        <v>3669</v>
-      </c>
-      <c r="B3582" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3583" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3583" s="1" t="s">
-        <v>3776</v>
-      </c>
-      <c r="B3583" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3584" s="1" t="s">
-        <v>3777</v>
-      </c>
-      <c r="B3584" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3585" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3585" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="B3585" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3586" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3586" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="B3586" s="1" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3587" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3587" s="1" t="s">
-        <v>3671</v>
-      </c>
-      <c r="B3587" s="1" t="s">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="3588" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3588" s="1" t="s">
-        <v>3672</v>
-      </c>
-      <c r="B3588" s="1" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="3589" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3589" s="1" t="s">
-        <v>3677</v>
-      </c>
-      <c r="B3589" s="1" t="s">
-        <v>3678</v>
-      </c>
-    </row>
-    <row r="3590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3590" s="1" t="s">
-        <v>3681</v>
-      </c>
-      <c r="B3590" s="1" t="s">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="3591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3591" s="1" t="s">
-        <v>3682</v>
-      </c>
-      <c r="B3591" s="1" t="s">
-        <v>3683</v>
-      </c>
-    </row>
-    <row r="3592" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3592" s="1" t="s">
-        <v>3685</v>
-      </c>
-      <c r="B3592" s="1" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="3593" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3593" s="1" t="s">
-        <v>3690</v>
-      </c>
-      <c r="B3593" s="1" t="s">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="3594" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3594" s="1" t="s">
-        <v>3692</v>
-      </c>
-      <c r="B3594" s="1" t="s">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="3595" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3595" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="B3595" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="C3595" s="1" t="s">
-        <v>3783</v>
-      </c>
-      <c r="D3595" s="1" t="s">
-        <v>3784</v>
-      </c>
-      <c r="E3595" s="1"/>
-      <c r="F3595" s="3"/>
-    </row>
-    <row r="3596" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3596" s="1" t="s">
-        <v>3785</v>
-      </c>
-      <c r="B3596" s="1" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C3596" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="D3596" s="1" t="s">
-        <v>3788</v>
-      </c>
-      <c r="E3596" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="F3596" s="1" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="3597" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3597" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="B3597" s="1" t="s">
-        <v>3792</v>
-      </c>
-      <c r="C3597" s="1" t="s">
-        <v>3793</v>
-      </c>
-      <c r="D3597" s="1" t="s">
-        <v>3794</v>
-      </c>
-      <c r="E3597" s="1" t="s">
-        <v>3795</v>
-      </c>
-      <c r="F3597" s="1" t="s">
-        <v>3796</v>
-      </c>
-      <c r="G3597" s="1" t="s">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="3598" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3598" s="1" t="s">
-        <v>3798</v>
-      </c>
-      <c r="B3598" s="1" t="s">
-        <v>3799</v>
-      </c>
-      <c r="C3598" s="1"/>
-      <c r="D3598" s="1"/>
-      <c r="E3598" s="1"/>
-      <c r="F3598" s="3"/>
-    </row>
-    <row r="3599" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3599" s="1" t="s">
-        <v>3800</v>
-      </c>
-      <c r="B3599" s="1" t="s">
-        <v>3801</v>
-      </c>
-      <c r="C3599" s="1" t="s">
-        <v>3802</v>
-      </c>
-      <c r="D3599" s="1" t="s">
-        <v>3803</v>
-      </c>
-      <c r="E3599" s="1" t="s">
-        <v>3804</v>
-      </c>
-      <c r="F3599" s="1" t="s">
-        <v>3805</v>
-      </c>
-      <c r="G3599" s="1" t="s">
-        <v>3806</v>
-      </c>
-    </row>
-    <row r="3600" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3600" s="1" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B3600" s="1" t="s">
-        <v>3808</v>
-      </c>
-      <c r="C3600" s="1" t="s">
-        <v>3809</v>
-      </c>
-      <c r="D3600" s="1" t="s">
-        <v>3810</v>
-      </c>
-      <c r="E3600" s="1" t="s">
-        <v>3811</v>
-      </c>
-      <c r="F3600" s="1" t="s">
-        <v>3812</v>
-      </c>
-    </row>
-    <row r="3601" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3601" s="1" t="s">
-        <v>3813</v>
-      </c>
-      <c r="B3601" s="1" t="s">
-        <v>3814</v>
-      </c>
-      <c r="C3601" s="1" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D3601" s="1" t="s">
-        <v>3816</v>
-      </c>
-      <c r="E3601" s="1" t="s">
-        <v>3817</v>
-      </c>
-      <c r="F3601" s="1" t="s">
-        <v>3818</v>
-      </c>
-    </row>
-    <row r="3602" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3602" s="1" t="s">
-        <v>3819</v>
-      </c>
-      <c r="B3602" s="1" t="s">
-        <v>3820</v>
-      </c>
-      <c r="C3602" s="1" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D3602" s="1" t="s">
-        <v>3822</v>
-      </c>
-      <c r="E3602" s="1" t="s">
-        <v>3823</v>
-      </c>
-      <c r="F3602" s="1" t="s">
-        <v>3824</v>
-      </c>
-    </row>
-    <row r="3603" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3603" s="1" t="s">
-        <v>3825</v>
-      </c>
-      <c r="B3603" s="1" t="s">
-        <v>3826</v>
-      </c>
-      <c r="C3603" s="1" t="s">
-        <v>3827</v>
-      </c>
-      <c r="D3603" s="1" t="s">
-        <v>3828</v>
-      </c>
-      <c r="E3603" s="1" t="s">
-        <v>3829</v>
-      </c>
-      <c r="F3603" s="1"/>
-    </row>
-    <row r="3604" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3604" s="1" t="s">
-        <v>3830</v>
-      </c>
-      <c r="B3604" s="1" t="s">
-        <v>3831</v>
-      </c>
-      <c r="C3604" s="1" t="s">
-        <v>3832</v>
-      </c>
-      <c r="D3604" s="1" t="s">
-        <v>3833</v>
-      </c>
-      <c r="E3604" s="1" t="s">
-        <v>3834</v>
-      </c>
-      <c r="F3604" s="1" t="s">
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="3605" spans="1:7" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3605" s="1" t="s">
-        <v>3836</v>
-      </c>
-      <c r="B3605" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="C3605" s="1" t="s">
-        <v>3838</v>
-      </c>
-      <c r="D3605" s="1" t="s">
-        <v>3839</v>
-      </c>
-      <c r="E3605" s="1" t="s">
-        <v>3840</v>
-      </c>
-      <c r="F3605" s="1"/>
-      <c r="G3605" s="1"/>
-    </row>
-    <row r="3606" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3606" s="1" t="s">
-        <v>3841</v>
-      </c>
-      <c r="B3606" s="1" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C3606" s="1" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D3606" s="1" t="s">
-        <v>3844</v>
-      </c>
-      <c r="E3606" s="1" t="s">
-        <v>3845</v>
-      </c>
-      <c r="F3606" s="1"/>
-      <c r="G3606" s="1"/>
-    </row>
-    <row r="3607" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3607" s="1" t="s">
-        <v>3846</v>
-      </c>
-      <c r="B3607" s="1" t="s">
-        <v>3847</v>
-      </c>
-      <c r="C3607" s="1" t="s">
-        <v>3848</v>
-      </c>
-      <c r="D3607" s="1" t="s">
-        <v>3849</v>
-      </c>
-      <c r="E3607" s="1" t="s">
-        <v>3850</v>
-      </c>
-      <c r="F3607" s="1" t="s">
-        <v>3851</v>
-      </c>
-      <c r="G3607" s="1" t="s">
-        <v>3852</v>
-      </c>
-    </row>
-    <row r="3608" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3608" s="1"/>
-      <c r="D3608" s="1"/>
-      <c r="E3608" s="1"/>
-      <c r="F3608" s="3"/>
+        <v>3729</v>
+      </c>
+      <c r="C3502" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D3502" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="E3502" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="F3502" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="G3502" s="1" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3503" s="1"/>
+      <c r="D3503" s="1"/>
+      <c r="E3503" s="1"/>
+      <c r="F3503" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E3594" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:E3502" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="41" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="39" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="37" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="35" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1681:A2536">
-    <cfRule type="duplicateValues" dxfId="34" priority="4156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2086 A1:B2085 A2087:B3594 A3609:B1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2633:A2694">
-    <cfRule type="duplicateValues" dxfId="32" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3212">
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5006:A1048576 A2:A2993">
-    <cfRule type="duplicateValues" dxfId="30" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5006:A1048576 A1676:A1680 A210:A1579 A2:A24 A26:A85 A144 A2541:A2632 A2695:A2993">
-    <cfRule type="duplicateValues" dxfId="29" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B3594 A3609:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1681:B2085 B2087:B2536">
-    <cfRule type="duplicateValues" dxfId="19" priority="4158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2086">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2633:B2694">
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3009">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3045">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3093">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3212">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5006:B1048576 B2:B2085 B2087:B2993">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5006:B1048576 B1676:B1680 B2:B24 B26:B85 B144 B2541:B2632 B2695:B2993 B210:B1579">
-    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3595:B3608">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12B89B-CB3D-4928-A96D-E30B7F825E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690074A-53EB-452B-8C1C-5367B3E74A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="2220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="2161">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6378,183 +6378,6 @@
     <t>Là người hay giúp đỡ đồng nghiệp, lấy chí thành mà đãi người. Người được thượng hạ cấp quí trọng, nâng đỡ, người có chỗ làm, nghề nghiệp đúng sở thích, hay được may mắn trong quan trường, sự nghiệp. Người thường hay làm các công việc có thiện tính cao như thầy thuốc, bác sỹ, thầy giáo…các công việc liên quan tới giúp đời, cứu người. Trong công việc và học tập thường hay chia sẻ, giúp đỡ, hòa đồng với mọi người nên khi gặp chuyện hay cần gì luôn có người giúp đỡ, hỗ trợ. Là người luôn làm công việc thanh lương, trong sạch, không ưa cạnh tranh, kèn cựa, không bao giờ làm điều ác hay bất nhân để đạt được mục đích, do vậy nên rất được mọi người tin tưởng và ngưỡng mộ.</t>
   </si>
   <si>
-    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
-  </si>
-  <si>
-    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
-  </si>
-  <si>
-    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
-  </si>
-  <si>
-    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
-  </si>
-  <si>
-    <t>Là cách cục đại cát, phú quý lâu dài</t>
-  </si>
-  <si>
-    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
-  </si>
-  <si>
-    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
-  </si>
-  <si>
-    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
-  </si>
-  <si>
-    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
-  </si>
-  <si>
-    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
-  </si>
-  <si>
-    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
-  </si>
-  <si>
-    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
-  </si>
-  <si>
-    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
-  </si>
-  <si>
-    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
-  </si>
-  <si>
-    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
-  </si>
-  <si>
-    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
-  </si>
-  <si>
-    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
-  </si>
-  <si>
-    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
-  </si>
-  <si>
-    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
-  </si>
-  <si>
-    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
-  </si>
-  <si>
-    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
-  </si>
-  <si>
-    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
-  </si>
-  <si>
-    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
-  </si>
-  <si>
-    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
-  </si>
-  <si>
-    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
-  </si>
-  <si>
-    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
-  </si>
-  <si>
-    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
-  </si>
-  <si>
-    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
-  </si>
-  <si>
-    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
-  </si>
-  <si>
-    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
-  </si>
-  <si>
-    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
-  </si>
-  <si>
     <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Phu Thê</t>
   </si>
   <si>
@@ -6688,10 +6511,6 @@
     <t xml:space="preserve">Xuất thân bằng võ nghiệp, nhưng rất chật vật. Nếu kinh doanh buôn bán, rất được xứng ý toại lòng. </t>
   </si>
   <si>
-    <t>Công danh trắc trở. Lúc thiếu thời khó được xứng ý 
-toại lòng, vì có tài nhưng bất đắc chí, về già mới có chút hư danh</t>
-  </si>
-  <si>
     <t>Nắm giữ đầu mối những công việc lớn và được chỉ huy một số người dưới quyền thật đông đảo.</t>
   </si>
   <si>
@@ -6721,6 +6540,9 @@
   <si>
     <t xml:space="preserve">Có khiếu về văn chương. Học ngoại ngữ rất chóng thông hiểu. Về sau có 
 danh chức khá lớn. Cầu danh rất dể dàng. </t>
+  </si>
+  <si>
+    <t>Công danh trắc trở. Lúc thiếu thời khó được xứng ý toại lòng, vì có tài nhưng bất đắc chí, về già mới có chút hư danh</t>
   </si>
 </sst>
 </file>
@@ -6771,7 +6593,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7060,8 +6892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G1936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1170" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1172" sqref="C1172"/>
+    <sheetView tabSelected="1" topLeftCell="A1927" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1935" sqref="B1935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7076,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2179</v>
+        <v>2120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2180</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7154,7 +6986,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2181</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7170,7 +7002,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2190</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7178,7 +7010,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2182</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -7186,7 +7018,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2183</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -7194,7 +7026,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2183</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7202,7 +7034,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2184</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7210,7 +7042,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2185</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7218,7 +7050,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2184</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7226,7 +7058,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2185</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7234,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2191</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7242,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2191</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7250,7 +7082,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2192</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7258,7 +7090,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2192</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7274,7 +7106,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2182</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7282,7 +7114,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2186</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7290,7 +7122,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2187</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7298,7 +7130,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2187</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7306,7 +7138,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2188</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7314,7 +7146,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2189</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7322,7 +7154,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2194</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7330,7 +7162,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2195</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -7338,7 +7170,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2195</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -7346,7 +7178,7 @@
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2197</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -7354,7 +7186,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2196</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -7362,7 +7194,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2198</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7474,7 +7306,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2202</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7498,7 +7330,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2202</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7514,7 +7346,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2203</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7538,7 +7370,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2203</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9138,7 +8970,7 @@
         <v>287</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2217</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9533,7 +9365,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>336</v>
       </c>
@@ -11493,7 +11325,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>579</v>
       </c>
@@ -13458,7 +13290,7 @@
         <v>824</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>2211</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13466,7 +13298,7 @@
         <v>825</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13474,7 +13306,7 @@
         <v>826</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13482,7 +13314,7 @@
         <v>827</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13490,7 +13322,7 @@
         <v>828</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13498,7 +13330,7 @@
         <v>829</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13506,7 +13338,7 @@
         <v>830</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13514,7 +13346,7 @@
         <v>831</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>2214</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13522,7 +13354,7 @@
         <v>832</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13530,7 +13362,7 @@
         <v>833</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13538,7 +13370,7 @@
         <v>834</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13546,7 +13378,7 @@
         <v>835</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13554,7 +13386,7 @@
         <v>836</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13562,7 +13394,7 @@
         <v>837</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13594,7 +13426,7 @@
         <v>841</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>2212</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13602,7 +13434,7 @@
         <v>842</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13610,7 +13442,7 @@
         <v>843</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13618,7 +13450,7 @@
         <v>844</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13626,7 +13458,7 @@
         <v>845</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13642,7 +13474,7 @@
         <v>847</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>2213</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13658,7 +13490,7 @@
         <v>849</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>2213</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13666,7 +13498,7 @@
         <v>850</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -13674,7 +13506,7 @@
         <v>851</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>2216</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -13682,7 +13514,7 @@
         <v>852</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>2215</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -13690,7 +13522,7 @@
         <v>853</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>2216</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13866,7 +13698,7 @@
         <v>875</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>2207</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -15197,7 +15029,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>1042</v>
       </c>
@@ -16106,7 +15938,7 @@
         <v>1155</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16130,7 +15962,7 @@
         <v>1158</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16138,7 +15970,7 @@
         <v>1159</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16154,7 +15986,7 @@
         <v>1161</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16162,7 +15994,7 @@
         <v>1162</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16186,7 +16018,7 @@
         <v>1165</v>
       </c>
       <c r="B1140" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16194,7 +16026,7 @@
         <v>1166</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16202,7 +16034,7 @@
         <v>1167</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16210,7 +16042,7 @@
         <v>1168</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -16229,7 +16061,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
         <v>1171</v>
       </c>
@@ -16237,7 +16069,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
         <v>1172</v>
       </c>
@@ -16426,7 +16258,7 @@
         <v>9</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>2201</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
@@ -16434,7 +16266,7 @@
         <v>10</v>
       </c>
       <c r="B1171" s="1" t="s">
-        <v>2193</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -16852,7 +16684,7 @@
         <v>1218</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>2199</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1222" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -17640,7 +17472,7 @@
         <v>1307</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>2184</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17648,7 +17480,7 @@
         <v>1308</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>2184</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17656,7 +17488,7 @@
         <v>1309</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>2200</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1321" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17664,7 +17496,7 @@
         <v>1310</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>2200</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -17672,7 +17504,7 @@
         <v>1311</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>2193</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17728,23 +17560,23 @@
         <v>1318</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>2209</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1332" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17776,7 +17608,7 @@
         <v>1324</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>2207</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17816,7 +17648,7 @@
         <v>1329</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>2208</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1341" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17824,7 +17656,7 @@
         <v>1330</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>2208</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
@@ -17856,7 +17688,7 @@
         <v>1334</v>
       </c>
       <c r="B1345" s="1" t="s">
-        <v>2206</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17864,7 +17696,7 @@
         <v>1335</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>2203</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17872,7 +17704,7 @@
         <v>1336</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>2203</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17880,7 +17712,7 @@
         <v>1337</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>2204</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17888,7 +17720,7 @@
         <v>1338</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>2204</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17912,7 +17744,7 @@
         <v>1341</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>2205</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -17920,7 +17752,7 @@
         <v>1342</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>2205</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1354" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19011,7 +18843,7 @@
         <v>1486</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>2218</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
@@ -19027,7 +18859,7 @@
         <v>1488</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>2219</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
@@ -22463,258 +22295,168 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1923" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="1923" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
-        <v>2166</v>
+        <v>2107</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="C1923" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D1923" s="1" t="s">
-        <v>2109</v>
-      </c>
+        <v>1577</v>
+      </c>
+      <c r="C1923" s="1"/>
+      <c r="D1923" s="1"/>
       <c r="E1923" s="1"/>
       <c r="F1923" s="3"/>
     </row>
-    <row r="1924" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1924" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
-        <v>2167</v>
+        <v>2108</v>
       </c>
       <c r="B1924" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C1924" s="1"/>
+      <c r="D1924" s="1"/>
+      <c r="E1924" s="1"/>
+      <c r="F1924" s="1"/>
+    </row>
+    <row r="1925" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1925" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1925" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1925" s="1"/>
+      <c r="D1925" s="1"/>
+      <c r="E1925" s="1"/>
+      <c r="F1925" s="1"/>
+      <c r="G1925" s="1"/>
+    </row>
+    <row r="1926" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1926" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="C1924" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D1924" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E1924" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F1924" s="1" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1925" s="1" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B1925" s="1" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C1925" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D1925" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E1925" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F1925" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="G1925" s="1" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1926" s="1" t="s">
-        <v>2169</v>
-      </c>
       <c r="B1926" s="1" t="s">
-        <v>2121</v>
+        <v>2145</v>
       </c>
       <c r="C1926" s="1"/>
       <c r="D1926" s="1"/>
       <c r="E1926" s="1"/>
       <c r="F1926" s="3"/>
     </row>
-    <row r="1927" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1927" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
-        <v>2170</v>
+        <v>2111</v>
       </c>
       <c r="B1927" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C1927" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D1927" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E1927" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1927" s="1"/>
+      <c r="D1927" s="1"/>
+      <c r="E1927" s="1"/>
+      <c r="F1927" s="1"/>
+      <c r="G1927" s="1"/>
+    </row>
+    <row r="1928" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1928" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1928" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="F1927" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G1927" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1928" s="1" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B1928" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C1928" s="1" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1928" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E1928" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F1928" s="1" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C1928" s="1"/>
+      <c r="D1928" s="1"/>
+      <c r="E1928" s="1"/>
+      <c r="F1928" s="1"/>
+    </row>
+    <row r="1929" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
-        <v>2172</v>
+        <v>2113</v>
       </c>
       <c r="B1929" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C1929" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D1929" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="E1929" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="F1929" s="1" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>2160</v>
+      </c>
+      <c r="C1929" s="1"/>
+      <c r="D1929" s="1"/>
+      <c r="E1929" s="1"/>
+      <c r="F1929" s="1"/>
+    </row>
+    <row r="1930" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
-        <v>2173</v>
+        <v>2114</v>
       </c>
       <c r="B1930" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="C1930" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D1930" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E1930" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="F1930" s="1" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1596</v>
+      </c>
+      <c r="C1930" s="1"/>
+      <c r="D1930" s="1"/>
+      <c r="E1930" s="1"/>
+      <c r="F1930" s="1"/>
+    </row>
+    <row r="1931" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
-        <v>2174</v>
+        <v>2115</v>
       </c>
       <c r="B1931" s="1" t="s">
-        <v>2143</v>
-      </c>
-      <c r="C1931" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D1931" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E1931" s="1" t="s">
-        <v>2146</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="C1931" s="1"/>
+      <c r="D1931" s="1"/>
+      <c r="E1931" s="1"/>
       <c r="F1931" s="1"/>
     </row>
-    <row r="1932" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1932" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
-        <v>2175</v>
+        <v>2116</v>
       </c>
       <c r="B1932" s="1" t="s">
-        <v>2147</v>
+        <v>2120</v>
       </c>
       <c r="C1932" s="1" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D1932" s="1" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E1932" s="1" t="s">
-        <v>2150</v>
-      </c>
-      <c r="F1932" s="1" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+        <v>2121</v>
+      </c>
+      <c r="D1932" s="1"/>
+      <c r="E1932" s="1"/>
+      <c r="F1932" s="1"/>
+    </row>
+    <row r="1933" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
-        <v>2176</v>
+        <v>2117</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>2152</v>
-      </c>
-      <c r="C1933" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D1933" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E1933" s="1" t="s">
-        <v>2155</v>
-      </c>
+        <v>1588</v>
+      </c>
+      <c r="C1933" s="1"/>
+      <c r="D1933" s="1"/>
+      <c r="E1933" s="1"/>
       <c r="F1933" s="1"/>
       <c r="G1933" s="1"/>
     </row>
-    <row r="1934" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1934" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
-        <v>2177</v>
+        <v>2118</v>
       </c>
       <c r="B1934" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C1934" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D1934" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E1934" s="1" t="s">
-        <v>2159</v>
-      </c>
+        <v>2142</v>
+      </c>
+      <c r="C1934" s="1"/>
+      <c r="D1934" s="1"/>
+      <c r="E1934" s="1"/>
       <c r="F1934" s="1"/>
       <c r="G1934" s="1"/>
     </row>
-    <row r="1935" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1935" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>2178</v>
+        <v>2119</v>
       </c>
       <c r="B1935" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C1935" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1935" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E1935" s="1" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F1935" s="1" t="s">
-        <v>2164</v>
-      </c>
-      <c r="G1935" s="1" t="s">
-        <v>2165</v>
-      </c>
+        <v>1572</v>
+      </c>
+      <c r="C1935" s="1"/>
+      <c r="D1935" s="1"/>
+      <c r="E1935" s="1"/>
+      <c r="F1935" s="1"/>
+      <c r="G1935" s="1"/>
     </row>
     <row r="1936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1936" s="1"/>
@@ -22725,9 +22467,6 @@
   </sheetData>
   <autoFilter ref="A2:E1935" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LuanQuanLoc.xlsx
+++ b/LuanQuanLoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690074A-53EB-452B-8C1C-5367B3E74A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B6057-4C0D-46A1-AF05-83ABB326860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="2185">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6543,6 +6543,78 @@
   </si>
   <si>
     <t>Công danh trắc trở. Lúc thiếu thời khó được xứng ý toại lòng, vì có tài nhưng bất đắc chí, về già mới có chút hư danh</t>
+  </si>
+  <si>
+    <t>Làm thầy thuốc có danh tiếng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm thầy giáo, viết báo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mở nhà in, làm tiểu công nghệ, hay buôn bán khá giả. </t>
+  </si>
+  <si>
+    <t>Làm thợ rất khéo léo</t>
+  </si>
+  <si>
+    <t>Chuyên ca vũ nhạc rất nổi tiếng.</t>
+  </si>
+  <si>
+    <t>Làm thợ may, thợ thêu</t>
+  </si>
+  <si>
+    <t>Làm thợ vẽ, hay họa sĩ</t>
+  </si>
+  <si>
+    <t>Làm công chức nhỏ thấp, làm quản lý, tổ trưởng.</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Tướng Ấn Long Phượng Phù</t>
+  </si>
+  <si>
+    <t>Làm thầy bói số cao tay</t>
+  </si>
+  <si>
+    <t>Làm thầy bối số</t>
+  </si>
+  <si>
+    <t>Thích xem bói toán, tâm linh</t>
+  </si>
+  <si>
+    <t>Làm thầy hòa thượng</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Tả Hữu Quang Quý Quan Phúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Tả Hữu Khoa Quyền Khôi Việt Xương Khúc Tấu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Tả Hữu Xương Khúc hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Long Phượng Hình Riêu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ Hồng Riêu Đào Tấu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Cơ Hồng Tấu hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Sát Phá Liêm Tham Hồng Đào Tấu Long Phượng hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Tả Hữu Xương Khúc Thai Cáo hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Sát Phá Liêm Tham Tả Hữu Quyền Lộc Nhật Nguyệt hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Đồng Long Phượng Hình Riêu Hồng Đào hội chiếu tại Quan Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng Quan Phù Tả Hữu Tướng Ấn hội chiếu tại Quan Lộc</t>
   </si>
 </sst>
 </file>
@@ -6593,28 +6665,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6890,10 +6941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1936"/>
+  <dimension ref="A2:G1947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1927" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1935" sqref="B1935"/>
+    <sheetView tabSelected="1" topLeftCell="A1933" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1944" sqref="C1944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9365,7 +9416,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>336</v>
       </c>
@@ -11325,7 +11376,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>579</v>
       </c>
@@ -15029,7 +15080,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>1042</v>
       </c>
@@ -16061,7 +16112,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
         <v>1171</v>
       </c>
@@ -16069,7 +16120,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
         <v>1172</v>
       </c>
@@ -22458,11 +22509,105 @@
       <c r="F1935" s="1"/>
       <c r="G1935" s="1"/>
     </row>
-    <row r="1936" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1936" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>2161</v>
+      </c>
       <c r="C1936" s="1"/>
       <c r="D1936" s="1"/>
       <c r="E1936" s="1"/>
       <c r="F1936" s="3"/>
+    </row>
+    <row r="1937" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1937" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1937" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1938" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1939" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1939" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1940" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1941" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1941" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1942" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1944" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1945" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1946" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1946" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1947" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1947" s="1" t="s">
+        <v>2173</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E1935" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
